--- a/state_results/Rivers/LHorowhenuaInflowatLindsayRoad_afd3a8ba71.xlsx
+++ b/state_results/Rivers/LHorowhenuaInflowatLindsayRoad_afd3a8ba71.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U117"/>
+  <dimension ref="A1:U134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1210,7 +1210,7 @@
         <v>0.15511</v>
       </c>
       <c r="G10" t="n">
-        <v>0.185600557106653</v>
+        <v>0.185551295138736</v>
       </c>
       <c r="H10" t="n">
         <v>1.10645108690681</v>
@@ -1291,7 +1291,7 @@
         <v>0.15511</v>
       </c>
       <c r="G11" t="n">
-        <v>0.185600557106653</v>
+        <v>0.185551295138736</v>
       </c>
       <c r="H11" t="n">
         <v>1.10645108690681</v>
@@ -2271,7 +2271,7 @@
         <v>0.17634</v>
       </c>
       <c r="G23" t="n">
-        <v>0.191478499153029</v>
+        <v>0.191440605331555</v>
       </c>
       <c r="H23" t="n">
         <v>1.10645108690681</v>
@@ -2352,7 +2352,7 @@
         <v>0.17634</v>
       </c>
       <c r="G24" t="n">
-        <v>0.191478499153029</v>
+        <v>0.191440605331555</v>
       </c>
       <c r="H24" t="n">
         <v>1.10645108690681</v>
@@ -3300,10 +3300,10 @@
         <v>370</v>
       </c>
       <c r="G36" t="n">
-        <v>1313.72148251605</v>
+        <v>1325.20241416136</v>
       </c>
       <c r="H36" t="n">
-        <v>12285.2085353243</v>
+        <v>12939.3521333977</v>
       </c>
       <c r="I36" t="n">
         <v>9055.700000000001</v>
@@ -3385,10 +3385,10 @@
         <v>370</v>
       </c>
       <c r="G37" t="n">
-        <v>1313.72148251605</v>
+        <v>1325.20241416136</v>
       </c>
       <c r="H37" t="n">
-        <v>12285.2085353243</v>
+        <v>12939.3521333977</v>
       </c>
       <c r="I37" t="n">
         <v>9055.700000000001</v>
@@ -3470,10 +3470,10 @@
         <v>370</v>
       </c>
       <c r="G38" t="n">
-        <v>1313.72148251605</v>
+        <v>1325.20241416136</v>
       </c>
       <c r="H38" t="n">
-        <v>12285.2085353243</v>
+        <v>12939.3521333977</v>
       </c>
       <c r="I38" t="n">
         <v>9055.700000000001</v>
@@ -3555,10 +3555,10 @@
         <v>370</v>
       </c>
       <c r="G39" t="n">
-        <v>1313.72148251605</v>
+        <v>1325.20241416136</v>
       </c>
       <c r="H39" t="n">
-        <v>12285.2085353243</v>
+        <v>12939.3521333977</v>
       </c>
       <c r="I39" t="n">
         <v>9055.700000000001</v>
@@ -3640,7 +3640,7 @@
         <v>0.19977</v>
       </c>
       <c r="G40" t="n">
-        <v>0.212928269126603</v>
+        <v>0.212893082006662</v>
       </c>
       <c r="H40" t="n">
         <v>1.10645108690681</v>
@@ -3721,7 +3721,7 @@
         <v>0.19977</v>
       </c>
       <c r="G41" t="n">
-        <v>0.212928269126603</v>
+        <v>0.212893082006662</v>
       </c>
       <c r="H41" t="n">
         <v>1.10645108690681</v>
@@ -4669,10 +4669,10 @@
         <v>300</v>
       </c>
       <c r="G53" t="n">
-        <v>1179.1224900683</v>
+        <v>1192.21075214396</v>
       </c>
       <c r="H53" t="n">
-        <v>12285.2085353243</v>
+        <v>12939.3521333977</v>
       </c>
       <c r="I53" t="n">
         <v>7900</v>
@@ -4754,10 +4754,10 @@
         <v>300</v>
       </c>
       <c r="G54" t="n">
-        <v>1179.1224900683</v>
+        <v>1192.21075214396</v>
       </c>
       <c r="H54" t="n">
-        <v>12285.2085353243</v>
+        <v>12939.3521333977</v>
       </c>
       <c r="I54" t="n">
         <v>7900</v>
@@ -4839,10 +4839,10 @@
         <v>300</v>
       </c>
       <c r="G55" t="n">
-        <v>1179.1224900683</v>
+        <v>1192.21075214396</v>
       </c>
       <c r="H55" t="n">
-        <v>12285.2085353243</v>
+        <v>12939.3521333977</v>
       </c>
       <c r="I55" t="n">
         <v>7900</v>
@@ -4924,10 +4924,10 @@
         <v>300</v>
       </c>
       <c r="G56" t="n">
-        <v>1179.1224900683</v>
+        <v>1192.21075214396</v>
       </c>
       <c r="H56" t="n">
-        <v>12285.2085353243</v>
+        <v>12939.3521333977</v>
       </c>
       <c r="I56" t="n">
         <v>7900</v>
@@ -5009,7 +5009,7 @@
         <v>0.18132</v>
       </c>
       <c r="G57" t="n">
-        <v>0.205492713542942</v>
+        <v>0.205453303968608</v>
       </c>
       <c r="H57" t="n">
         <v>1.10645108690681</v>
@@ -5090,7 +5090,7 @@
         <v>0.18132</v>
       </c>
       <c r="G58" t="n">
-        <v>0.205492713542942</v>
+        <v>0.205453303968608</v>
       </c>
       <c r="H58" t="n">
         <v>1.10645108690681</v>
@@ -6038,10 +6038,10 @@
         <v>180</v>
       </c>
       <c r="G70" t="n">
-        <v>1139.16926048781</v>
+        <v>1152.80286681662</v>
       </c>
       <c r="H70" t="n">
-        <v>12285.2085353243</v>
+        <v>12939.3521333977</v>
       </c>
       <c r="I70" t="n">
         <v>8080</v>
@@ -6123,10 +6123,10 @@
         <v>180</v>
       </c>
       <c r="G71" t="n">
-        <v>1139.16926048781</v>
+        <v>1152.80286681662</v>
       </c>
       <c r="H71" t="n">
-        <v>12285.2085353243</v>
+        <v>12939.3521333977</v>
       </c>
       <c r="I71" t="n">
         <v>8080</v>
@@ -6208,10 +6208,10 @@
         <v>180</v>
       </c>
       <c r="G72" t="n">
-        <v>1139.16926048781</v>
+        <v>1152.80286681662</v>
       </c>
       <c r="H72" t="n">
-        <v>12285.2085353243</v>
+        <v>12939.3521333977</v>
       </c>
       <c r="I72" t="n">
         <v>8080</v>
@@ -6293,10 +6293,10 @@
         <v>180</v>
       </c>
       <c r="G73" t="n">
-        <v>1139.16926048781</v>
+        <v>1152.80286681662</v>
       </c>
       <c r="H73" t="n">
-        <v>12285.2085353243</v>
+        <v>12939.3521333977</v>
       </c>
       <c r="I73" t="n">
         <v>8080</v>
@@ -6378,7 +6378,7 @@
         <v>0.1812</v>
       </c>
       <c r="G74" t="n">
-        <v>0.214442890058924</v>
+        <v>0.214416548499924</v>
       </c>
       <c r="H74" t="n">
         <v>1.10645108690681</v>
@@ -6459,7 +6459,7 @@
         <v>0.1812</v>
       </c>
       <c r="G75" t="n">
-        <v>0.214442890058924</v>
+        <v>0.214416548499924</v>
       </c>
       <c r="H75" t="n">
         <v>1.10645108690681</v>
@@ -7407,10 +7407,10 @@
         <v>195</v>
       </c>
       <c r="G87" t="n">
-        <v>1090.12759382115</v>
+        <v>1103.76120014995</v>
       </c>
       <c r="H87" t="n">
-        <v>12285.2085353243</v>
+        <v>12939.3521333977</v>
       </c>
       <c r="I87" t="n">
         <v>7000</v>
@@ -7492,10 +7492,10 @@
         <v>195</v>
       </c>
       <c r="G88" t="n">
-        <v>1090.12759382115</v>
+        <v>1103.76120014995</v>
       </c>
       <c r="H88" t="n">
-        <v>12285.2085353243</v>
+        <v>12939.3521333977</v>
       </c>
       <c r="I88" t="n">
         <v>7000</v>
@@ -7577,10 +7577,10 @@
         <v>195</v>
       </c>
       <c r="G89" t="n">
-        <v>1090.12759382115</v>
+        <v>1103.76120014995</v>
       </c>
       <c r="H89" t="n">
-        <v>12285.2085353243</v>
+        <v>12939.3521333977</v>
       </c>
       <c r="I89" t="n">
         <v>7000</v>
@@ -7662,10 +7662,10 @@
         <v>195</v>
       </c>
       <c r="G90" t="n">
-        <v>1090.12759382115</v>
+        <v>1103.76120014995</v>
       </c>
       <c r="H90" t="n">
-        <v>12285.2085353243</v>
+        <v>12939.3521333977</v>
       </c>
       <c r="I90" t="n">
         <v>7000</v>
@@ -8776,13 +8776,13 @@
         <v>380</v>
       </c>
       <c r="G104" t="n">
-        <v>1737.67989114467</v>
+        <v>1588.01795230982</v>
       </c>
       <c r="H104" t="n">
-        <v>18259.5102715289</v>
+        <v>12939.3521333977</v>
       </c>
       <c r="I104" t="n">
-        <v>8338.520850000001</v>
+        <v>8152.13241</v>
       </c>
       <c r="J104" t="n">
         <v>39.5833333333333</v>
@@ -8861,13 +8861,13 @@
         <v>380</v>
       </c>
       <c r="G105" t="n">
-        <v>1737.67989114467</v>
+        <v>1588.01795230982</v>
       </c>
       <c r="H105" t="n">
-        <v>18259.5102715289</v>
+        <v>12939.3521333977</v>
       </c>
       <c r="I105" t="n">
-        <v>8338.520850000001</v>
+        <v>8152.13241</v>
       </c>
       <c r="J105" t="n">
         <v>39.5833333333333</v>
@@ -8946,13 +8946,13 @@
         <v>380</v>
       </c>
       <c r="G106" t="n">
-        <v>1737.67989114467</v>
+        <v>1588.01795230982</v>
       </c>
       <c r="H106" t="n">
-        <v>18259.5102715289</v>
+        <v>12939.3521333977</v>
       </c>
       <c r="I106" t="n">
-        <v>8338.520850000001</v>
+        <v>8152.13241</v>
       </c>
       <c r="J106" t="n">
         <v>39.5833333333333</v>
@@ -9031,13 +9031,13 @@
         <v>380</v>
       </c>
       <c r="G107" t="n">
-        <v>1737.67989114467</v>
+        <v>1588.01795230982</v>
       </c>
       <c r="H107" t="n">
-        <v>18259.5102715289</v>
+        <v>12939.3521333977</v>
       </c>
       <c r="I107" t="n">
-        <v>8338.520850000001</v>
+        <v>8152.13241</v>
       </c>
       <c r="J107" t="n">
         <v>39.5833333333333</v>
@@ -9872,6 +9872,1375 @@
         </is>
       </c>
     </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>L Horowhenua Inflow at Lindsay Road</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 1)</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.2975</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.478</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0.3972</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0.46626</v>
+      </c>
+      <c r="O118" t="n">
+        <v>1791973.7</v>
+      </c>
+      <c r="P118" t="n">
+        <v>5504665</v>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T118" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>L Horowhenua Inflow at Lindsay Road</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.03378</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0.0595</v>
+      </c>
+      <c r="O119" t="n">
+        <v>1791973.7</v>
+      </c>
+      <c r="P119" t="n">
+        <v>5504665</v>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R119" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T119" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>L Horowhenua Inflow at Lindsay Road</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.03378</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0.0595</v>
+      </c>
+      <c r="O120" t="n">
+        <v>1791973.7</v>
+      </c>
+      <c r="P120" t="n">
+        <v>5504665</v>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R120" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T120" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>L Horowhenua Inflow at Lindsay Road</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>355</v>
+      </c>
+      <c r="G121" t="n">
+        <v>1089.76648207347</v>
+      </c>
+      <c r="H121" t="n">
+        <v>10421.3241036736</v>
+      </c>
+      <c r="I121" t="n">
+        <v>5199</v>
+      </c>
+      <c r="J121" t="n">
+        <v>34</v>
+      </c>
+      <c r="K121" t="n">
+        <v>58</v>
+      </c>
+      <c r="L121" t="n">
+        <v>568</v>
+      </c>
+      <c r="M121" t="n">
+        <v>1600</v>
+      </c>
+      <c r="N121" t="n">
+        <v>4042.5</v>
+      </c>
+      <c r="O121" t="n">
+        <v>1791973.7</v>
+      </c>
+      <c r="P121" t="n">
+        <v>5504665</v>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R121" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T121" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>L Horowhenua Inflow at Lindsay Road</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>355</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1089.76648207347</v>
+      </c>
+      <c r="H122" t="n">
+        <v>10421.3241036736</v>
+      </c>
+      <c r="I122" t="n">
+        <v>5199</v>
+      </c>
+      <c r="J122" t="n">
+        <v>34</v>
+      </c>
+      <c r="K122" t="n">
+        <v>58</v>
+      </c>
+      <c r="L122" t="n">
+        <v>568</v>
+      </c>
+      <c r="M122" t="n">
+        <v>1600</v>
+      </c>
+      <c r="N122" t="n">
+        <v>4042.5</v>
+      </c>
+      <c r="O122" t="n">
+        <v>1791973.7</v>
+      </c>
+      <c r="P122" t="n">
+        <v>5504665</v>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R122" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T122" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>L Horowhenua Inflow at Lindsay Road</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>355</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1089.76648207347</v>
+      </c>
+      <c r="H123" t="n">
+        <v>10421.3241036736</v>
+      </c>
+      <c r="I123" t="n">
+        <v>5199</v>
+      </c>
+      <c r="J123" t="n">
+        <v>34</v>
+      </c>
+      <c r="K123" t="n">
+        <v>58</v>
+      </c>
+      <c r="L123" t="n">
+        <v>568</v>
+      </c>
+      <c r="M123" t="n">
+        <v>1600</v>
+      </c>
+      <c r="N123" t="n">
+        <v>4042.5</v>
+      </c>
+      <c r="O123" t="n">
+        <v>1791973.7</v>
+      </c>
+      <c r="P123" t="n">
+        <v>5504665</v>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R123" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T123" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>L Horowhenua Inflow at Lindsay Road</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>355</v>
+      </c>
+      <c r="G124" t="n">
+        <v>1089.76648207347</v>
+      </c>
+      <c r="H124" t="n">
+        <v>10421.3241036736</v>
+      </c>
+      <c r="I124" t="n">
+        <v>5199</v>
+      </c>
+      <c r="J124" t="n">
+        <v>34</v>
+      </c>
+      <c r="K124" t="n">
+        <v>58</v>
+      </c>
+      <c r="L124" t="n">
+        <v>568</v>
+      </c>
+      <c r="M124" t="n">
+        <v>1600</v>
+      </c>
+      <c r="N124" t="n">
+        <v>4042.5</v>
+      </c>
+      <c r="O124" t="n">
+        <v>1791973.7</v>
+      </c>
+      <c r="P124" t="n">
+        <v>5504665</v>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R124" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T124" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>L Horowhenua Inflow at Lindsay Road</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>0.12488</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.135547826159867</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.41958041958042</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0.32755</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>0.11194</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0.25351</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0.3135</v>
+      </c>
+      <c r="O125" t="n">
+        <v>1791973.7</v>
+      </c>
+      <c r="P125" t="n">
+        <v>5504665</v>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R125" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T125" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U125" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>L Horowhenua Inflow at Lindsay Road</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>0.12488</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.135547826159867</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0.41958041958042</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0.32755</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>0.11194</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0.25351</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0.3135</v>
+      </c>
+      <c r="O126" t="n">
+        <v>1791973.7</v>
+      </c>
+      <c r="P126" t="n">
+        <v>5504665</v>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R126" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T126" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U126" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>L Horowhenua Inflow at Lindsay Road</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>1.825</v>
+      </c>
+      <c r="G127" t="n">
+        <v>1.76746</v>
+      </c>
+      <c r="H127" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="I127" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M127" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="N127" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="O127" t="n">
+        <v>1791973.7</v>
+      </c>
+      <c r="P127" t="n">
+        <v>5504665</v>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R127" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T127" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U127" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>L Horowhenua Inflow at Lindsay Road</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>1.825</v>
+      </c>
+      <c r="G128" t="n">
+        <v>1.76746</v>
+      </c>
+      <c r="H128" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="I128" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M128" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="N128" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="O128" t="n">
+        <v>1791973.7</v>
+      </c>
+      <c r="P128" t="n">
+        <v>5504665</v>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R128" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T128" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>L Horowhenua Inflow at Lindsay Road</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>2.189</v>
+      </c>
+      <c r="G129" t="n">
+        <v>2.18084</v>
+      </c>
+      <c r="H129" t="n">
+        <v>4.064</v>
+      </c>
+      <c r="I129" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>2.006</v>
+      </c>
+      <c r="M129" t="n">
+        <v>2.844</v>
+      </c>
+      <c r="N129" t="n">
+        <v>3.042</v>
+      </c>
+      <c r="O129" t="n">
+        <v>1791973.7</v>
+      </c>
+      <c r="P129" t="n">
+        <v>5504665</v>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R129" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T129" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U129" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>L Horowhenua Inflow at Lindsay Road</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>2.189</v>
+      </c>
+      <c r="G130" t="n">
+        <v>2.18084</v>
+      </c>
+      <c r="H130" t="n">
+        <v>4.064</v>
+      </c>
+      <c r="I130" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>2.006</v>
+      </c>
+      <c r="M130" t="n">
+        <v>2.844</v>
+      </c>
+      <c r="N130" t="n">
+        <v>3.042</v>
+      </c>
+      <c r="O130" t="n">
+        <v>1791973.7</v>
+      </c>
+      <c r="P130" t="n">
+        <v>5504665</v>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R130" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T130" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U130" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>L Horowhenua Inflow at Lindsay Road</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>3.415</v>
+      </c>
+      <c r="G131" t="n">
+        <v>3.3394</v>
+      </c>
+      <c r="H131" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="I131" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="M131" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="N131" t="n">
+        <v>4.325</v>
+      </c>
+      <c r="O131" t="n">
+        <v>1791973.7</v>
+      </c>
+      <c r="P131" t="n">
+        <v>5504665</v>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R131" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T131" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U131" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>L Horowhenua Inflow at Lindsay Road</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>3.415</v>
+      </c>
+      <c r="G132" t="n">
+        <v>3.3394</v>
+      </c>
+      <c r="H132" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="I132" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="M132" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="N132" t="n">
+        <v>4.325</v>
+      </c>
+      <c r="O132" t="n">
+        <v>1791973.7</v>
+      </c>
+      <c r="P132" t="n">
+        <v>5504665</v>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R132" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T132" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U132" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>L Horowhenua Inflow at Lindsay Road</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>0.1215</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.15678</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.776</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0.341</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0.224</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0.309</v>
+      </c>
+      <c r="O133" t="n">
+        <v>1791973.7</v>
+      </c>
+      <c r="P133" t="n">
+        <v>5504665</v>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R133" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T133" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U133" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>L Horowhenua Inflow at Lindsay Road</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>0.1215</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.15678</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0.776</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0.341</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="M134" t="n">
+        <v>0.224</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0.309</v>
+      </c>
+      <c r="O134" t="n">
+        <v>1791973.7</v>
+      </c>
+      <c r="P134" t="n">
+        <v>5504665</v>
+      </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R134" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T134" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U134" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/LHorowhenuaInflowatLindsayRoad_afd3a8ba71.xlsx
+++ b/state_results/Rivers/LHorowhenuaInflowatLindsayRoad_afd3a8ba71.xlsx
@@ -3300,10 +3300,10 @@
         <v>370</v>
       </c>
       <c r="G36" t="n">
-        <v>1325.20241416136</v>
+        <v>1290.49827841645</v>
       </c>
       <c r="H36" t="n">
-        <v>12939.3521333977</v>
+        <v>10961.2163959378</v>
       </c>
       <c r="I36" t="n">
         <v>9055.700000000001</v>
@@ -3385,10 +3385,10 @@
         <v>370</v>
       </c>
       <c r="G37" t="n">
-        <v>1325.20241416136</v>
+        <v>1290.49827841645</v>
       </c>
       <c r="H37" t="n">
-        <v>12939.3521333977</v>
+        <v>10961.2163959378</v>
       </c>
       <c r="I37" t="n">
         <v>9055.700000000001</v>
@@ -3470,10 +3470,10 @@
         <v>370</v>
       </c>
       <c r="G38" t="n">
-        <v>1325.20241416136</v>
+        <v>1290.49827841645</v>
       </c>
       <c r="H38" t="n">
-        <v>12939.3521333977</v>
+        <v>10961.2163959378</v>
       </c>
       <c r="I38" t="n">
         <v>9055.700000000001</v>
@@ -3555,10 +3555,10 @@
         <v>370</v>
       </c>
       <c r="G39" t="n">
-        <v>1325.20241416136</v>
+        <v>1290.49827841645</v>
       </c>
       <c r="H39" t="n">
-        <v>12939.3521333977</v>
+        <v>10961.2163959378</v>
       </c>
       <c r="I39" t="n">
         <v>9055.700000000001</v>
@@ -4669,10 +4669,10 @@
         <v>300</v>
       </c>
       <c r="G53" t="n">
-        <v>1192.21075214396</v>
+        <v>1152.64803739476</v>
       </c>
       <c r="H53" t="n">
-        <v>12939.3521333977</v>
+        <v>10961.2163959378</v>
       </c>
       <c r="I53" t="n">
         <v>7900</v>
@@ -4754,10 +4754,10 @@
         <v>300</v>
       </c>
       <c r="G54" t="n">
-        <v>1192.21075214396</v>
+        <v>1152.64803739476</v>
       </c>
       <c r="H54" t="n">
-        <v>12939.3521333977</v>
+        <v>10961.2163959378</v>
       </c>
       <c r="I54" t="n">
         <v>7900</v>
@@ -4839,10 +4839,10 @@
         <v>300</v>
       </c>
       <c r="G55" t="n">
-        <v>1192.21075214396</v>
+        <v>1152.64803739476</v>
       </c>
       <c r="H55" t="n">
-        <v>12939.3521333977</v>
+        <v>10961.2163959378</v>
       </c>
       <c r="I55" t="n">
         <v>7900</v>
@@ -4924,10 +4924,10 @@
         <v>300</v>
       </c>
       <c r="G56" t="n">
-        <v>1192.21075214396</v>
+        <v>1152.64803739476</v>
       </c>
       <c r="H56" t="n">
-        <v>12939.3521333977</v>
+        <v>10961.2163959378</v>
       </c>
       <c r="I56" t="n">
         <v>7900</v>
@@ -6038,10 +6038,10 @@
         <v>180</v>
       </c>
       <c r="G70" t="n">
-        <v>1152.80286681662</v>
+        <v>1111.59170561954</v>
       </c>
       <c r="H70" t="n">
-        <v>12939.3521333977</v>
+        <v>10961.2163959378</v>
       </c>
       <c r="I70" t="n">
         <v>8080</v>
@@ -6123,10 +6123,10 @@
         <v>180</v>
       </c>
       <c r="G71" t="n">
-        <v>1152.80286681662</v>
+        <v>1111.59170561954</v>
       </c>
       <c r="H71" t="n">
-        <v>12939.3521333977</v>
+        <v>10961.2163959378</v>
       </c>
       <c r="I71" t="n">
         <v>8080</v>
@@ -6208,10 +6208,10 @@
         <v>180</v>
       </c>
       <c r="G72" t="n">
-        <v>1152.80286681662</v>
+        <v>1111.59170561954</v>
       </c>
       <c r="H72" t="n">
-        <v>12939.3521333977</v>
+        <v>10961.2163959378</v>
       </c>
       <c r="I72" t="n">
         <v>8080</v>
@@ -6293,10 +6293,10 @@
         <v>180</v>
       </c>
       <c r="G73" t="n">
-        <v>1152.80286681662</v>
+        <v>1111.59170561954</v>
       </c>
       <c r="H73" t="n">
-        <v>12939.3521333977</v>
+        <v>10961.2163959378</v>
       </c>
       <c r="I73" t="n">
         <v>8080</v>
@@ -7407,10 +7407,10 @@
         <v>195</v>
       </c>
       <c r="G87" t="n">
-        <v>1103.76120014995</v>
+        <v>1062.55003895287</v>
       </c>
       <c r="H87" t="n">
-        <v>12939.3521333977</v>
+        <v>10961.2163959378</v>
       </c>
       <c r="I87" t="n">
         <v>7000</v>
@@ -7492,10 +7492,10 @@
         <v>195</v>
       </c>
       <c r="G88" t="n">
-        <v>1103.76120014995</v>
+        <v>1062.55003895287</v>
       </c>
       <c r="H88" t="n">
-        <v>12939.3521333977</v>
+        <v>10961.2163959378</v>
       </c>
       <c r="I88" t="n">
         <v>7000</v>
@@ -7577,10 +7577,10 @@
         <v>195</v>
       </c>
       <c r="G89" t="n">
-        <v>1103.76120014995</v>
+        <v>1062.55003895287</v>
       </c>
       <c r="H89" t="n">
-        <v>12939.3521333977</v>
+        <v>10961.2163959378</v>
       </c>
       <c r="I89" t="n">
         <v>7000</v>
@@ -7662,10 +7662,10 @@
         <v>195</v>
       </c>
       <c r="G90" t="n">
-        <v>1103.76120014995</v>
+        <v>1062.55003895287</v>
       </c>
       <c r="H90" t="n">
-        <v>12939.3521333977</v>
+        <v>10961.2163959378</v>
       </c>
       <c r="I90" t="n">
         <v>7000</v>
@@ -8776,13 +8776,13 @@
         <v>380</v>
       </c>
       <c r="G104" t="n">
-        <v>1588.01795230982</v>
+        <v>1664.71523149314</v>
       </c>
       <c r="H104" t="n">
-        <v>12939.3521333977</v>
+        <v>16080.9292419329</v>
       </c>
       <c r="I104" t="n">
-        <v>8152.13241</v>
+        <v>8206.121639999999</v>
       </c>
       <c r="J104" t="n">
         <v>39.5833333333333</v>
@@ -8861,13 +8861,13 @@
         <v>380</v>
       </c>
       <c r="G105" t="n">
-        <v>1588.01795230982</v>
+        <v>1664.71523149314</v>
       </c>
       <c r="H105" t="n">
-        <v>12939.3521333977</v>
+        <v>16080.9292419329</v>
       </c>
       <c r="I105" t="n">
-        <v>8152.13241</v>
+        <v>8206.121639999999</v>
       </c>
       <c r="J105" t="n">
         <v>39.5833333333333</v>
@@ -8946,13 +8946,13 @@
         <v>380</v>
       </c>
       <c r="G106" t="n">
-        <v>1588.01795230982</v>
+        <v>1664.71523149314</v>
       </c>
       <c r="H106" t="n">
-        <v>12939.3521333977</v>
+        <v>16080.9292419329</v>
       </c>
       <c r="I106" t="n">
-        <v>8152.13241</v>
+        <v>8206.121639999999</v>
       </c>
       <c r="J106" t="n">
         <v>39.5833333333333</v>
@@ -9031,13 +9031,13 @@
         <v>380</v>
       </c>
       <c r="G107" t="n">
-        <v>1588.01795230982</v>
+        <v>1664.71523149314</v>
       </c>
       <c r="H107" t="n">
-        <v>12939.3521333977</v>
+        <v>16080.9292419329</v>
       </c>
       <c r="I107" t="n">
-        <v>8152.13241</v>
+        <v>8206.121639999999</v>
       </c>
       <c r="J107" t="n">
         <v>39.5833333333333</v>
@@ -10145,10 +10145,10 @@
         <v>355</v>
       </c>
       <c r="G121" t="n">
-        <v>1089.76648207347</v>
+        <v>1202.95858483866</v>
       </c>
       <c r="H121" t="n">
-        <v>10421.3241036736</v>
+        <v>16080.9292419329</v>
       </c>
       <c r="I121" t="n">
         <v>5199</v>
@@ -10230,10 +10230,10 @@
         <v>355</v>
       </c>
       <c r="G122" t="n">
-        <v>1089.76648207347</v>
+        <v>1202.95858483866</v>
       </c>
       <c r="H122" t="n">
-        <v>10421.3241036736</v>
+        <v>16080.9292419329</v>
       </c>
       <c r="I122" t="n">
         <v>5199</v>
@@ -10315,10 +10315,10 @@
         <v>355</v>
       </c>
       <c r="G123" t="n">
-        <v>1089.76648207347</v>
+        <v>1202.95858483866</v>
       </c>
       <c r="H123" t="n">
-        <v>10421.3241036736</v>
+        <v>16080.9292419329</v>
       </c>
       <c r="I123" t="n">
         <v>5199</v>
@@ -10400,10 +10400,10 @@
         <v>355</v>
       </c>
       <c r="G124" t="n">
-        <v>1089.76648207347</v>
+        <v>1202.95858483866</v>
       </c>
       <c r="H124" t="n">
-        <v>10421.3241036736</v>
+        <v>16080.9292419329</v>
       </c>
       <c r="I124" t="n">
         <v>5199</v>

--- a/state_results/Rivers/LHorowhenuaInflowatLindsayRoad_afd3a8ba71.xlsx
+++ b/state_results/Rivers/LHorowhenuaInflowatLindsayRoad_afd3a8ba71.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="66">
   <si>
     <t>site name</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>2019 - 2023</t>
+  </si>
+  <si>
+    <t>2020 - 2024</t>
   </si>
   <si>
     <t>RepSite</t>
@@ -566,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U134"/>
+  <dimension ref="A1:U151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -651,7 +654,7 @@
         <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F2">
         <v>0.027</v>
@@ -666,7 +669,7 @@
         <v>0.045</v>
       </c>
       <c r="L2">
-        <v>0.0315</v>
+        <v>0.0305</v>
       </c>
       <c r="M2">
         <v>0.0374</v>
@@ -681,19 +684,19 @@
         <v>5504665</v>
       </c>
       <c r="Q2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -710,7 +713,7 @@
         <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F3">
         <v>0.027</v>
@@ -725,7 +728,7 @@
         <v>0.045</v>
       </c>
       <c r="L3">
-        <v>0.0315</v>
+        <v>0.0305</v>
       </c>
       <c r="M3">
         <v>0.0374</v>
@@ -740,19 +743,19 @@
         <v>5504665</v>
       </c>
       <c r="Q3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -769,7 +772,7 @@
         <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F4">
         <v>1.88065</v>
@@ -799,19 +802,19 @@
         <v>5504665</v>
       </c>
       <c r="Q4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -828,7 +831,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F5">
         <v>1.88065</v>
@@ -858,19 +861,19 @@
         <v>5504665</v>
       </c>
       <c r="Q5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -884,7 +887,7 @@
         <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F6">
         <v>2.3845</v>
@@ -914,19 +917,19 @@
         <v>5504665</v>
       </c>
       <c r="Q6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -940,7 +943,7 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F7">
         <v>2.3845</v>
@@ -970,19 +973,19 @@
         <v>5504665</v>
       </c>
       <c r="Q7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -999,7 +1002,7 @@
         <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F8">
         <v>0.027</v>
@@ -1014,7 +1017,7 @@
         <v>0.0568</v>
       </c>
       <c r="L8">
-        <v>0.0305</v>
+        <v>0.03</v>
       </c>
       <c r="M8">
         <v>0.04016</v>
@@ -1029,19 +1032,19 @@
         <v>5504665</v>
       </c>
       <c r="Q8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1058,7 +1061,7 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F9">
         <v>0.027</v>
@@ -1073,7 +1076,7 @@
         <v>0.0568</v>
       </c>
       <c r="L9">
-        <v>0.0305</v>
+        <v>0.03</v>
       </c>
       <c r="M9">
         <v>0.04016</v>
@@ -1088,19 +1091,19 @@
         <v>5504665</v>
       </c>
       <c r="Q9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1117,13 +1120,13 @@
         <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F10">
         <v>0.15511</v>
       </c>
       <c r="G10">
-        <v>0.185551295138736</v>
+        <v>0.185558395117294</v>
       </c>
       <c r="H10">
         <v>1.10645108690681</v>
@@ -1132,7 +1135,7 @@
         <v>0.50621</v>
       </c>
       <c r="L10">
-        <v>0.0832</v>
+        <v>0.07938000000000001</v>
       </c>
       <c r="M10">
         <v>0.27978</v>
@@ -1147,19 +1150,19 @@
         <v>5504665</v>
       </c>
       <c r="Q10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1176,13 +1179,13 @@
         <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F11">
         <v>0.15511</v>
       </c>
       <c r="G11">
-        <v>0.185551295138736</v>
+        <v>0.185558395117294</v>
       </c>
       <c r="H11">
         <v>1.10645108690681</v>
@@ -1191,7 +1194,7 @@
         <v>0.50621</v>
       </c>
       <c r="L11">
-        <v>0.0832</v>
+        <v>0.07938000000000001</v>
       </c>
       <c r="M11">
         <v>0.27978</v>
@@ -1206,19 +1209,19 @@
         <v>5504665</v>
       </c>
       <c r="Q11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1235,7 +1238,7 @@
         <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F12">
         <v>1.86415</v>
@@ -1250,7 +1253,7 @@
         <v>4.30134</v>
       </c>
       <c r="L12">
-        <v>1.1436</v>
+        <v>1.21585</v>
       </c>
       <c r="M12">
         <v>2.47689</v>
@@ -1265,19 +1268,19 @@
         <v>5504665</v>
       </c>
       <c r="Q12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1294,7 +1297,7 @@
         <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F13">
         <v>1.86415</v>
@@ -1309,7 +1312,7 @@
         <v>4.30134</v>
       </c>
       <c r="L13">
-        <v>1.1436</v>
+        <v>1.21585</v>
       </c>
       <c r="M13">
         <v>2.47689</v>
@@ -1324,19 +1327,19 @@
         <v>5504665</v>
       </c>
       <c r="Q13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1350,7 +1353,7 @@
         <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F14">
         <v>2.3215</v>
@@ -1380,19 +1383,19 @@
         <v>5504665</v>
       </c>
       <c r="Q14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1406,7 +1409,7 @@
         <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F15">
         <v>2.3215</v>
@@ -1436,19 +1439,19 @@
         <v>5504665</v>
       </c>
       <c r="Q15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1465,7 +1468,7 @@
         <v>45</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F16">
         <v>0.38</v>
@@ -1480,7 +1483,7 @@
         <v>1.09</v>
       </c>
       <c r="L16">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="M16">
         <v>0.5461</v>
@@ -1495,19 +1498,19 @@
         <v>5504665</v>
       </c>
       <c r="Q16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1524,7 +1527,7 @@
         <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F17">
         <v>0.0285</v>
@@ -1554,19 +1557,19 @@
         <v>5504665</v>
       </c>
       <c r="Q17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1583,7 +1586,7 @@
         <v>45</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F18">
         <v>0.0285</v>
@@ -1613,19 +1616,19 @@
         <v>5504665</v>
       </c>
       <c r="Q18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1642,7 +1645,7 @@
         <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F19">
         <v>376.5</v>
@@ -1663,7 +1666,7 @@
         <v>57.4074074074074</v>
       </c>
       <c r="L19">
-        <v>450</v>
+        <v>585</v>
       </c>
       <c r="M19">
         <v>2032.72</v>
@@ -1678,19 +1681,19 @@
         <v>5504665</v>
       </c>
       <c r="Q19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1707,7 +1710,7 @@
         <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F20">
         <v>376.5</v>
@@ -1728,7 +1731,7 @@
         <v>57.4074074074074</v>
       </c>
       <c r="L20">
-        <v>450</v>
+        <v>585</v>
       </c>
       <c r="M20">
         <v>2032.72</v>
@@ -1743,19 +1746,19 @@
         <v>5504665</v>
       </c>
       <c r="Q20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1772,7 +1775,7 @@
         <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F21">
         <v>376.5</v>
@@ -1793,7 +1796,7 @@
         <v>57.4074074074074</v>
       </c>
       <c r="L21">
-        <v>450</v>
+        <v>585</v>
       </c>
       <c r="M21">
         <v>2032.72</v>
@@ -1808,19 +1811,19 @@
         <v>5504665</v>
       </c>
       <c r="Q21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -1837,7 +1840,7 @@
         <v>45</v>
       </c>
       <c r="E22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F22">
         <v>376.5</v>
@@ -1858,7 +1861,7 @@
         <v>57.4074074074074</v>
       </c>
       <c r="L22">
-        <v>450</v>
+        <v>585</v>
       </c>
       <c r="M22">
         <v>2032.72</v>
@@ -1873,19 +1876,19 @@
         <v>5504665</v>
       </c>
       <c r="Q22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -1902,13 +1905,13 @@
         <v>45</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F23">
         <v>0.17634</v>
       </c>
       <c r="G23">
-        <v>0.191440605331555</v>
+        <v>0.191446066853522</v>
       </c>
       <c r="H23">
         <v>1.10645108690681</v>
@@ -1917,7 +1920,7 @@
         <v>0.49192</v>
       </c>
       <c r="L23">
-        <v>0.125</v>
+        <v>0.1122</v>
       </c>
       <c r="M23">
         <v>0.29234</v>
@@ -1932,19 +1935,19 @@
         <v>5504665</v>
       </c>
       <c r="Q23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -1961,13 +1964,13 @@
         <v>45</v>
       </c>
       <c r="E24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F24">
         <v>0.17634</v>
       </c>
       <c r="G24">
-        <v>0.191440605331555</v>
+        <v>0.191446066853522</v>
       </c>
       <c r="H24">
         <v>1.10645108690681</v>
@@ -1976,7 +1979,7 @@
         <v>0.49192</v>
       </c>
       <c r="L24">
-        <v>0.125</v>
+        <v>0.1122</v>
       </c>
       <c r="M24">
         <v>0.29234</v>
@@ -1991,19 +1994,19 @@
         <v>5504665</v>
       </c>
       <c r="Q24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2020,7 +2023,7 @@
         <v>45</v>
       </c>
       <c r="E25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F25">
         <v>1.84</v>
@@ -2035,7 +2038,7 @@
         <v>3.1941</v>
       </c>
       <c r="L25">
-        <v>1.0838</v>
+        <v>1.21585</v>
       </c>
       <c r="M25">
         <v>2.46529</v>
@@ -2050,19 +2053,19 @@
         <v>5504665</v>
       </c>
       <c r="Q25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2079,7 +2082,7 @@
         <v>45</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F26">
         <v>1.84</v>
@@ -2094,7 +2097,7 @@
         <v>3.1941</v>
       </c>
       <c r="L26">
-        <v>1.0838</v>
+        <v>1.21585</v>
       </c>
       <c r="M26">
         <v>2.46529</v>
@@ -2109,19 +2112,19 @@
         <v>5504665</v>
       </c>
       <c r="Q26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2135,7 +2138,7 @@
         <v>45</v>
       </c>
       <c r="E27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F27">
         <v>2.245</v>
@@ -2165,19 +2168,19 @@
         <v>5504665</v>
       </c>
       <c r="Q27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2191,7 +2194,7 @@
         <v>45</v>
       </c>
       <c r="E28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F28">
         <v>2.245</v>
@@ -2221,19 +2224,19 @@
         <v>5504665</v>
       </c>
       <c r="Q28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2247,7 +2250,7 @@
         <v>45</v>
       </c>
       <c r="E29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F29">
         <v>3.301</v>
@@ -2262,7 +2265,7 @@
         <v>5.468</v>
       </c>
       <c r="L29">
-        <v>3.0325</v>
+        <v>3.0275</v>
       </c>
       <c r="M29">
         <v>4.12356</v>
@@ -2277,19 +2280,19 @@
         <v>5504665</v>
       </c>
       <c r="Q29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2303,7 +2306,7 @@
         <v>45</v>
       </c>
       <c r="E30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F30">
         <v>3.301</v>
@@ -2318,7 +2321,7 @@
         <v>5.468</v>
       </c>
       <c r="L30">
-        <v>3.0325</v>
+        <v>3.0275</v>
       </c>
       <c r="M30">
         <v>4.12356</v>
@@ -2333,19 +2336,19 @@
         <v>5504665</v>
       </c>
       <c r="Q30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2359,7 +2362,7 @@
         <v>45</v>
       </c>
       <c r="E31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F31">
         <v>0.104</v>
@@ -2374,7 +2377,7 @@
         <v>0.355</v>
       </c>
       <c r="L31">
-        <v>0.131</v>
+        <v>0.1155</v>
       </c>
       <c r="M31">
         <v>0.20552</v>
@@ -2389,19 +2392,19 @@
         <v>5504665</v>
       </c>
       <c r="Q31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2415,7 +2418,7 @@
         <v>45</v>
       </c>
       <c r="E32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F32">
         <v>0.104</v>
@@ -2430,7 +2433,7 @@
         <v>0.355</v>
       </c>
       <c r="L32">
-        <v>0.131</v>
+        <v>0.1155</v>
       </c>
       <c r="M32">
         <v>0.20552</v>
@@ -2445,19 +2448,19 @@
         <v>5504665</v>
       </c>
       <c r="Q32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2474,7 +2477,7 @@
         <v>46</v>
       </c>
       <c r="E33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F33">
         <v>0.32</v>
@@ -2504,19 +2507,19 @@
         <v>5504665</v>
       </c>
       <c r="Q33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2533,7 +2536,7 @@
         <v>46</v>
       </c>
       <c r="E34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F34">
         <v>0.029</v>
@@ -2548,7 +2551,7 @@
         <v>0.0543</v>
       </c>
       <c r="L34">
-        <v>0.0315</v>
+        <v>0.0325</v>
       </c>
       <c r="M34">
         <v>0.044</v>
@@ -2563,19 +2566,19 @@
         <v>5504665</v>
       </c>
       <c r="Q34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2592,7 +2595,7 @@
         <v>46</v>
       </c>
       <c r="E35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F35">
         <v>0.029</v>
@@ -2607,7 +2610,7 @@
         <v>0.0543</v>
       </c>
       <c r="L35">
-        <v>0.0315</v>
+        <v>0.0325</v>
       </c>
       <c r="M35">
         <v>0.044</v>
@@ -2622,19 +2625,19 @@
         <v>5504665</v>
       </c>
       <c r="Q35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -2651,16 +2654,16 @@
         <v>46</v>
       </c>
       <c r="E36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F36">
         <v>370</v>
       </c>
       <c r="G36">
-        <v>1378.32302462755</v>
+        <v>1346.50053133019</v>
       </c>
       <c r="H36">
-        <v>15967.2269299701</v>
+        <v>14153.789341875</v>
       </c>
       <c r="I36">
         <v>9055.700000000001</v>
@@ -2672,7 +2675,7 @@
         <v>54.3859649122807</v>
       </c>
       <c r="L36">
-        <v>396.5</v>
+        <v>473.5</v>
       </c>
       <c r="M36">
         <v>1562</v>
@@ -2687,19 +2690,19 @@
         <v>5504665</v>
       </c>
       <c r="Q36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -2716,16 +2719,16 @@
         <v>46</v>
       </c>
       <c r="E37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F37">
         <v>370</v>
       </c>
       <c r="G37">
-        <v>1378.32302462755</v>
+        <v>1346.50053133019</v>
       </c>
       <c r="H37">
-        <v>15967.2269299701</v>
+        <v>14153.789341875</v>
       </c>
       <c r="I37">
         <v>9055.700000000001</v>
@@ -2737,7 +2740,7 @@
         <v>54.3859649122807</v>
       </c>
       <c r="L37">
-        <v>396.5</v>
+        <v>473.5</v>
       </c>
       <c r="M37">
         <v>1562</v>
@@ -2752,19 +2755,19 @@
         <v>5504665</v>
       </c>
       <c r="Q37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -2781,16 +2784,16 @@
         <v>46</v>
       </c>
       <c r="E38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F38">
         <v>370</v>
       </c>
       <c r="G38">
-        <v>1378.32302462755</v>
+        <v>1346.50053133019</v>
       </c>
       <c r="H38">
-        <v>15967.2269299701</v>
+        <v>14153.789341875</v>
       </c>
       <c r="I38">
         <v>9055.700000000001</v>
@@ -2802,7 +2805,7 @@
         <v>54.3859649122807</v>
       </c>
       <c r="L38">
-        <v>396.5</v>
+        <v>473.5</v>
       </c>
       <c r="M38">
         <v>1562</v>
@@ -2817,19 +2820,19 @@
         <v>5504665</v>
       </c>
       <c r="Q38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -2846,16 +2849,16 @@
         <v>46</v>
       </c>
       <c r="E39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F39">
         <v>370</v>
       </c>
       <c r="G39">
-        <v>1378.32302462755</v>
+        <v>1346.50053133019</v>
       </c>
       <c r="H39">
-        <v>15967.2269299701</v>
+        <v>14153.789341875</v>
       </c>
       <c r="I39">
         <v>9055.700000000001</v>
@@ -2867,7 +2870,7 @@
         <v>54.3859649122807</v>
       </c>
       <c r="L39">
-        <v>396.5</v>
+        <v>473.5</v>
       </c>
       <c r="M39">
         <v>1562</v>
@@ -2882,19 +2885,19 @@
         <v>5504665</v>
       </c>
       <c r="Q39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U39" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -2911,13 +2914,13 @@
         <v>46</v>
       </c>
       <c r="E40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F40">
         <v>0.19977</v>
       </c>
       <c r="G40">
-        <v>0.212893082006662</v>
+        <v>0.212898153419918</v>
       </c>
       <c r="H40">
         <v>1.10645108690681</v>
@@ -2941,19 +2944,19 @@
         <v>5504665</v>
       </c>
       <c r="Q40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U40" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -2970,13 +2973,13 @@
         <v>46</v>
       </c>
       <c r="E41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F41">
         <v>0.19977</v>
       </c>
       <c r="G41">
-        <v>0.212893082006662</v>
+        <v>0.212898153419918</v>
       </c>
       <c r="H41">
         <v>1.10645108690681</v>
@@ -3000,19 +3003,19 @@
         <v>5504665</v>
       </c>
       <c r="Q41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -3029,7 +3032,7 @@
         <v>46</v>
       </c>
       <c r="E42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F42">
         <v>1.8</v>
@@ -3044,7 +3047,7 @@
         <v>3.89653</v>
       </c>
       <c r="L42">
-        <v>1.08</v>
+        <v>1.2648</v>
       </c>
       <c r="M42">
         <v>2.5886</v>
@@ -3059,19 +3062,19 @@
         <v>5504665</v>
       </c>
       <c r="Q42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -3088,7 +3091,7 @@
         <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F43">
         <v>1.8</v>
@@ -3103,7 +3106,7 @@
         <v>3.89653</v>
       </c>
       <c r="L43">
-        <v>1.08</v>
+        <v>1.2648</v>
       </c>
       <c r="M43">
         <v>2.5886</v>
@@ -3118,19 +3121,19 @@
         <v>5504665</v>
       </c>
       <c r="Q43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -3144,7 +3147,7 @@
         <v>46</v>
       </c>
       <c r="E44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F44">
         <v>2.2</v>
@@ -3159,7 +3162,7 @@
         <v>4.9074</v>
       </c>
       <c r="L44">
-        <v>1.963</v>
+        <v>1.98</v>
       </c>
       <c r="M44">
         <v>3.2081</v>
@@ -3174,19 +3177,19 @@
         <v>5504665</v>
       </c>
       <c r="Q44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -3200,7 +3203,7 @@
         <v>46</v>
       </c>
       <c r="E45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F45">
         <v>2.2</v>
@@ -3215,7 +3218,7 @@
         <v>4.9074</v>
       </c>
       <c r="L45">
-        <v>1.963</v>
+        <v>1.98</v>
       </c>
       <c r="M45">
         <v>3.2081</v>
@@ -3230,19 +3233,19 @@
         <v>5504665</v>
       </c>
       <c r="Q45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:21">
@@ -3256,7 +3259,7 @@
         <v>46</v>
       </c>
       <c r="E46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F46">
         <v>3.524</v>
@@ -3271,7 +3274,7 @@
         <v>6.1835</v>
       </c>
       <c r="L46">
-        <v>3.0325</v>
+        <v>3.075</v>
       </c>
       <c r="M46">
         <v>4.20098</v>
@@ -3286,19 +3289,19 @@
         <v>5504665</v>
       </c>
       <c r="Q46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:21">
@@ -3312,7 +3315,7 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F47">
         <v>3.524</v>
@@ -3327,7 +3330,7 @@
         <v>6.1835</v>
       </c>
       <c r="L47">
-        <v>3.0325</v>
+        <v>3.075</v>
       </c>
       <c r="M47">
         <v>4.20098</v>
@@ -3342,19 +3345,19 @@
         <v>5504665</v>
       </c>
       <c r="Q47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R47" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:21">
@@ -3368,7 +3371,7 @@
         <v>46</v>
       </c>
       <c r="E48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F48">
         <v>0.123</v>
@@ -3383,7 +3386,7 @@
         <v>0.34975</v>
       </c>
       <c r="L48">
-        <v>0.1245</v>
+        <v>0.1355</v>
       </c>
       <c r="M48">
         <v>0.23541</v>
@@ -3398,19 +3401,19 @@
         <v>5504665</v>
       </c>
       <c r="Q48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -3424,7 +3427,7 @@
         <v>46</v>
       </c>
       <c r="E49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F49">
         <v>0.123</v>
@@ -3439,7 +3442,7 @@
         <v>0.34975</v>
       </c>
       <c r="L49">
-        <v>0.1245</v>
+        <v>0.1355</v>
       </c>
       <c r="M49">
         <v>0.23541</v>
@@ -3454,19 +3457,19 @@
         <v>5504665</v>
       </c>
       <c r="Q49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -3483,7 +3486,7 @@
         <v>47</v>
       </c>
       <c r="E50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F50">
         <v>0.31</v>
@@ -3498,7 +3501,7 @@
         <v>0.6</v>
       </c>
       <c r="L50">
-        <v>0.31</v>
+        <v>0.34</v>
       </c>
       <c r="M50">
         <v>0.4255</v>
@@ -3513,19 +3516,19 @@
         <v>5504665</v>
       </c>
       <c r="Q50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U50" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:21">
@@ -3542,7 +3545,7 @@
         <v>47</v>
       </c>
       <c r="E51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F51">
         <v>0.0295</v>
@@ -3557,7 +3560,7 @@
         <v>0.057</v>
       </c>
       <c r="L51">
-        <v>0.032</v>
+        <v>0.033</v>
       </c>
       <c r="M51">
         <v>0.045</v>
@@ -3572,19 +3575,19 @@
         <v>5504665</v>
       </c>
       <c r="Q51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:21">
@@ -3601,7 +3604,7 @@
         <v>47</v>
       </c>
       <c r="E52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F52">
         <v>0.0295</v>
@@ -3616,7 +3619,7 @@
         <v>0.057</v>
       </c>
       <c r="L52">
-        <v>0.032</v>
+        <v>0.033</v>
       </c>
       <c r="M52">
         <v>0.045</v>
@@ -3631,19 +3634,19 @@
         <v>5504665</v>
       </c>
       <c r="Q52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:21">
@@ -3660,16 +3663,16 @@
         <v>47</v>
       </c>
       <c r="E53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F53">
         <v>300</v>
       </c>
       <c r="G53">
-        <v>1252.7682480754</v>
+        <v>1216.49060571642</v>
       </c>
       <c r="H53">
-        <v>15967.2269299701</v>
+        <v>14153.789341875</v>
       </c>
       <c r="I53">
         <v>7900</v>
@@ -3681,7 +3684,7 @@
         <v>50</v>
       </c>
       <c r="L53">
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="M53">
         <v>1400</v>
@@ -3696,19 +3699,19 @@
         <v>5504665</v>
       </c>
       <c r="Q53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U53" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -3725,16 +3728,16 @@
         <v>47</v>
       </c>
       <c r="E54" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F54">
         <v>300</v>
       </c>
       <c r="G54">
-        <v>1252.7682480754</v>
+        <v>1216.49060571642</v>
       </c>
       <c r="H54">
-        <v>15967.2269299701</v>
+        <v>14153.789341875</v>
       </c>
       <c r="I54">
         <v>7900</v>
@@ -3746,7 +3749,7 @@
         <v>50</v>
       </c>
       <c r="L54">
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="M54">
         <v>1400</v>
@@ -3761,19 +3764,19 @@
         <v>5504665</v>
       </c>
       <c r="Q54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T54" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U54" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -3790,16 +3793,16 @@
         <v>47</v>
       </c>
       <c r="E55" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F55">
         <v>300</v>
       </c>
       <c r="G55">
-        <v>1252.7682480754</v>
+        <v>1216.49060571642</v>
       </c>
       <c r="H55">
-        <v>15967.2269299701</v>
+        <v>14153.789341875</v>
       </c>
       <c r="I55">
         <v>7900</v>
@@ -3811,7 +3814,7 @@
         <v>50</v>
       </c>
       <c r="L55">
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="M55">
         <v>1400</v>
@@ -3826,19 +3829,19 @@
         <v>5504665</v>
       </c>
       <c r="Q55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U55" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:21">
@@ -3855,16 +3858,16 @@
         <v>47</v>
       </c>
       <c r="E56" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F56">
         <v>300</v>
       </c>
       <c r="G56">
-        <v>1252.7682480754</v>
+        <v>1216.49060571642</v>
       </c>
       <c r="H56">
-        <v>15967.2269299701</v>
+        <v>14153.789341875</v>
       </c>
       <c r="I56">
         <v>7900</v>
@@ -3876,7 +3879,7 @@
         <v>50</v>
       </c>
       <c r="L56">
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="M56">
         <v>1400</v>
@@ -3891,19 +3894,19 @@
         <v>5504665</v>
       </c>
       <c r="Q56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U56" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:21">
@@ -3920,13 +3923,13 @@
         <v>47</v>
       </c>
       <c r="E57" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F57">
         <v>0.18132</v>
       </c>
       <c r="G57">
-        <v>0.205453303968608</v>
+        <v>0.205458983951455</v>
       </c>
       <c r="H57">
         <v>1.10645108690681</v>
@@ -3935,7 +3938,7 @@
         <v>0.48795</v>
       </c>
       <c r="L57">
-        <v>0.13374</v>
+        <v>0.15223</v>
       </c>
       <c r="M57">
         <v>0.31648</v>
@@ -3950,19 +3953,19 @@
         <v>5504665</v>
       </c>
       <c r="Q57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S57" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U57" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:21">
@@ -3979,13 +3982,13 @@
         <v>47</v>
       </c>
       <c r="E58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F58">
         <v>0.18132</v>
       </c>
       <c r="G58">
-        <v>0.205453303968608</v>
+        <v>0.205458983951455</v>
       </c>
       <c r="H58">
         <v>1.10645108690681</v>
@@ -3994,7 +3997,7 @@
         <v>0.48795</v>
       </c>
       <c r="L58">
-        <v>0.13374</v>
+        <v>0.15223</v>
       </c>
       <c r="M58">
         <v>0.31648</v>
@@ -4009,19 +4012,19 @@
         <v>5504665</v>
       </c>
       <c r="Q58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R58" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S58" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T58" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U58" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -4038,7 +4041,7 @@
         <v>47</v>
       </c>
       <c r="E59" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F59">
         <v>1.815</v>
@@ -4053,7 +4056,7 @@
         <v>4.25</v>
       </c>
       <c r="L59">
-        <v>1.1</v>
+        <v>1.46</v>
       </c>
       <c r="M59">
         <v>2.6</v>
@@ -4068,19 +4071,19 @@
         <v>5504665</v>
       </c>
       <c r="Q59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R59" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S59" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T59" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:21">
@@ -4097,7 +4100,7 @@
         <v>47</v>
       </c>
       <c r="E60" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F60">
         <v>1.815</v>
@@ -4112,7 +4115,7 @@
         <v>4.25</v>
       </c>
       <c r="L60">
-        <v>1.1</v>
+        <v>1.46</v>
       </c>
       <c r="M60">
         <v>2.6</v>
@@ -4127,19 +4130,19 @@
         <v>5504665</v>
       </c>
       <c r="Q60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R60" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S60" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T60" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U60" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:21">
@@ -4153,7 +4156,7 @@
         <v>47</v>
       </c>
       <c r="E61" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F61">
         <v>2.28</v>
@@ -4168,7 +4171,7 @@
         <v>5.41</v>
       </c>
       <c r="L61">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="M61">
         <v>3.03</v>
@@ -4183,19 +4186,19 @@
         <v>5504665</v>
       </c>
       <c r="Q61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R61" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S61" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T61" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:21">
@@ -4209,7 +4212,7 @@
         <v>47</v>
       </c>
       <c r="E62" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F62">
         <v>2.28</v>
@@ -4224,7 +4227,7 @@
         <v>5.41</v>
       </c>
       <c r="L62">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="M62">
         <v>3.03</v>
@@ -4239,19 +4242,19 @@
         <v>5504665</v>
       </c>
       <c r="Q62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R62" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S62" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T62" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U62" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:21">
@@ -4265,7 +4268,7 @@
         <v>47</v>
       </c>
       <c r="E63" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F63">
         <v>3.527</v>
@@ -4280,7 +4283,7 @@
         <v>6.53</v>
       </c>
       <c r="L63">
-        <v>3.05</v>
+        <v>3.07</v>
       </c>
       <c r="M63">
         <v>4.28</v>
@@ -4295,19 +4298,19 @@
         <v>5504665</v>
       </c>
       <c r="Q63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R63" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S63" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T63" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U63" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:21">
@@ -4321,7 +4324,7 @@
         <v>47</v>
       </c>
       <c r="E64" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F64">
         <v>3.527</v>
@@ -4336,7 +4339,7 @@
         <v>6.53</v>
       </c>
       <c r="L64">
-        <v>3.05</v>
+        <v>3.07</v>
       </c>
       <c r="M64">
         <v>4.28</v>
@@ -4351,19 +4354,19 @@
         <v>5504665</v>
       </c>
       <c r="Q64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R64" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S64" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T64" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U64" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:21">
@@ -4377,7 +4380,7 @@
         <v>47</v>
       </c>
       <c r="E65" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F65">
         <v>0.123</v>
@@ -4392,7 +4395,7 @@
         <v>0.362</v>
       </c>
       <c r="L65">
-        <v>0.092</v>
+        <v>0.123</v>
       </c>
       <c r="M65">
         <v>0.227</v>
@@ -4407,19 +4410,19 @@
         <v>5504665</v>
       </c>
       <c r="Q65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R65" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S65" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T65" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U65" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:21">
@@ -4433,7 +4436,7 @@
         <v>47</v>
       </c>
       <c r="E66" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F66">
         <v>0.123</v>
@@ -4448,7 +4451,7 @@
         <v>0.362</v>
       </c>
       <c r="L66">
-        <v>0.092</v>
+        <v>0.123</v>
       </c>
       <c r="M66">
         <v>0.227</v>
@@ -4463,19 +4466,19 @@
         <v>5504665</v>
       </c>
       <c r="Q66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R66" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S66" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T66" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U66" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:21">
@@ -4492,7 +4495,7 @@
         <v>48</v>
       </c>
       <c r="E67" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F67">
         <v>0.31</v>
@@ -4522,19 +4525,19 @@
         <v>5504665</v>
       </c>
       <c r="Q67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R67" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S67" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T67" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U67" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:21">
@@ -4551,7 +4554,7 @@
         <v>48</v>
       </c>
       <c r="E68" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F68">
         <v>0.028</v>
@@ -4566,7 +4569,7 @@
         <v>0.0586</v>
       </c>
       <c r="L68">
-        <v>0.0305</v>
+        <v>0.032</v>
       </c>
       <c r="M68">
         <v>0.04434</v>
@@ -4581,19 +4584,19 @@
         <v>5504665</v>
       </c>
       <c r="Q68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R68" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S68" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T68" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U68" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="1:21">
@@ -4610,7 +4613,7 @@
         <v>48</v>
       </c>
       <c r="E69" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F69">
         <v>0.028</v>
@@ -4625,7 +4628,7 @@
         <v>0.0586</v>
       </c>
       <c r="L69">
-        <v>0.0305</v>
+        <v>0.032</v>
       </c>
       <c r="M69">
         <v>0.04434</v>
@@ -4640,19 +4643,19 @@
         <v>5504665</v>
       </c>
       <c r="Q69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R69" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S69" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T69" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U69" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:21">
@@ -4669,16 +4672,16 @@
         <v>48</v>
       </c>
       <c r="E70" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F70">
         <v>180</v>
       </c>
       <c r="G70">
-        <v>1215.88359174521</v>
+        <v>1178.0943809546</v>
       </c>
       <c r="H70">
-        <v>15967.2269299701</v>
+        <v>14153.789341875</v>
       </c>
       <c r="I70">
         <v>8080</v>
@@ -4690,7 +4693,7 @@
         <v>41.6666666666667</v>
       </c>
       <c r="L70">
-        <v>375</v>
+        <v>420</v>
       </c>
       <c r="M70">
         <v>984.2</v>
@@ -4705,19 +4708,19 @@
         <v>5504665</v>
       </c>
       <c r="Q70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R70" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S70" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T70" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U70" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:21">
@@ -4734,16 +4737,16 @@
         <v>48</v>
       </c>
       <c r="E71" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F71">
         <v>180</v>
       </c>
       <c r="G71">
-        <v>1215.88359174521</v>
+        <v>1178.0943809546</v>
       </c>
       <c r="H71">
-        <v>15967.2269299701</v>
+        <v>14153.789341875</v>
       </c>
       <c r="I71">
         <v>8080</v>
@@ -4755,7 +4758,7 @@
         <v>41.6666666666667</v>
       </c>
       <c r="L71">
-        <v>375</v>
+        <v>420</v>
       </c>
       <c r="M71">
         <v>984.2</v>
@@ -4770,19 +4773,19 @@
         <v>5504665</v>
       </c>
       <c r="Q71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R71" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S71" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T71" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U71" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:21">
@@ -4799,16 +4802,16 @@
         <v>48</v>
       </c>
       <c r="E72" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F72">
         <v>180</v>
       </c>
       <c r="G72">
-        <v>1215.88359174521</v>
+        <v>1178.0943809546</v>
       </c>
       <c r="H72">
-        <v>15967.2269299701</v>
+        <v>14153.789341875</v>
       </c>
       <c r="I72">
         <v>8080</v>
@@ -4820,7 +4823,7 @@
         <v>41.6666666666667</v>
       </c>
       <c r="L72">
-        <v>375</v>
+        <v>420</v>
       </c>
       <c r="M72">
         <v>984.2</v>
@@ -4835,19 +4838,19 @@
         <v>5504665</v>
       </c>
       <c r="Q72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R72" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S72" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T72" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U72" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73" spans="1:21">
@@ -4864,16 +4867,16 @@
         <v>48</v>
       </c>
       <c r="E73" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F73">
         <v>180</v>
       </c>
       <c r="G73">
-        <v>1215.88359174521</v>
+        <v>1178.0943809546</v>
       </c>
       <c r="H73">
-        <v>15967.2269299701</v>
+        <v>14153.789341875</v>
       </c>
       <c r="I73">
         <v>8080</v>
@@ -4885,7 +4888,7 @@
         <v>41.6666666666667</v>
       </c>
       <c r="L73">
-        <v>375</v>
+        <v>420</v>
       </c>
       <c r="M73">
         <v>984.2</v>
@@ -4900,19 +4903,19 @@
         <v>5504665</v>
       </c>
       <c r="Q73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R73" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S73" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T73" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U73" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:21">
@@ -4929,13 +4932,13 @@
         <v>48</v>
       </c>
       <c r="E74" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F74">
         <v>0.1812</v>
       </c>
       <c r="G74">
-        <v>0.214416548499924</v>
+        <v>0.214422035942428</v>
       </c>
       <c r="H74">
         <v>1.10645108690681</v>
@@ -4944,7 +4947,7 @@
         <v>0.49372</v>
       </c>
       <c r="L74">
-        <v>0.1559</v>
+        <v>0.1613</v>
       </c>
       <c r="M74">
         <v>0.33001</v>
@@ -4959,19 +4962,19 @@
         <v>5504665</v>
       </c>
       <c r="Q74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R74" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S74" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T74" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U74" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="75" spans="1:21">
@@ -4988,13 +4991,13 @@
         <v>48</v>
       </c>
       <c r="E75" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F75">
         <v>0.1812</v>
       </c>
       <c r="G75">
-        <v>0.214416548499924</v>
+        <v>0.214422035942428</v>
       </c>
       <c r="H75">
         <v>1.10645108690681</v>
@@ -5003,7 +5006,7 @@
         <v>0.49372</v>
       </c>
       <c r="L75">
-        <v>0.1559</v>
+        <v>0.1613</v>
       </c>
       <c r="M75">
         <v>0.33001</v>
@@ -5018,19 +5021,19 @@
         <v>5504665</v>
       </c>
       <c r="Q75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R75" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S75" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T75" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U75" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="76" spans="1:21">
@@ -5047,7 +5050,7 @@
         <v>48</v>
       </c>
       <c r="E76" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F76">
         <v>1.79</v>
@@ -5062,7 +5065,7 @@
         <v>2.886</v>
       </c>
       <c r="L76">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="M76">
         <v>2.5604</v>
@@ -5077,19 +5080,19 @@
         <v>5504665</v>
       </c>
       <c r="Q76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R76" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S76" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T76" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U76" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="77" spans="1:21">
@@ -5106,7 +5109,7 @@
         <v>48</v>
       </c>
       <c r="E77" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F77">
         <v>1.79</v>
@@ -5121,7 +5124,7 @@
         <v>2.886</v>
       </c>
       <c r="L77">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="M77">
         <v>2.5604</v>
@@ -5136,19 +5139,19 @@
         <v>5504665</v>
       </c>
       <c r="Q77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R77" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S77" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T77" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U77" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="78" spans="1:21">
@@ -5162,7 +5165,7 @@
         <v>48</v>
       </c>
       <c r="E78" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F78">
         <v>2.186</v>
@@ -5177,7 +5180,7 @@
         <v>3.3203</v>
       </c>
       <c r="L78">
-        <v>1.885</v>
+        <v>1.97</v>
       </c>
       <c r="M78">
         <v>2.964</v>
@@ -5192,19 +5195,19 @@
         <v>5504665</v>
       </c>
       <c r="Q78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R78" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S78" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T78" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U78" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:21">
@@ -5218,7 +5221,7 @@
         <v>48</v>
       </c>
       <c r="E79" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F79">
         <v>2.186</v>
@@ -5233,7 +5236,7 @@
         <v>3.3203</v>
       </c>
       <c r="L79">
-        <v>1.885</v>
+        <v>1.97</v>
       </c>
       <c r="M79">
         <v>2.964</v>
@@ -5248,19 +5251,19 @@
         <v>5504665</v>
       </c>
       <c r="Q79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R79" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S79" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T79" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U79" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:21">
@@ -5274,7 +5277,7 @@
         <v>48</v>
       </c>
       <c r="E80" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F80">
         <v>3.5</v>
@@ -5289,7 +5292,7 @@
         <v>5.216</v>
       </c>
       <c r="L80">
-        <v>2.985</v>
+        <v>3.07</v>
       </c>
       <c r="M80">
         <v>3.9774</v>
@@ -5304,19 +5307,19 @@
         <v>5504665</v>
       </c>
       <c r="Q80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R80" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S80" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T80" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U80" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81" spans="1:21">
@@ -5330,7 +5333,7 @@
         <v>48</v>
       </c>
       <c r="E81" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F81">
         <v>3.5</v>
@@ -5345,7 +5348,7 @@
         <v>5.216</v>
       </c>
       <c r="L81">
-        <v>2.985</v>
+        <v>3.07</v>
       </c>
       <c r="M81">
         <v>3.9774</v>
@@ -5360,19 +5363,19 @@
         <v>5504665</v>
       </c>
       <c r="Q81" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R81" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S81" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T81" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U81" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="82" spans="1:21">
@@ -5386,7 +5389,7 @@
         <v>48</v>
       </c>
       <c r="E82" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F82">
         <v>0.1235</v>
@@ -5401,7 +5404,7 @@
         <v>0.3637</v>
       </c>
       <c r="L82">
-        <v>0.115</v>
+        <v>0.133</v>
       </c>
       <c r="M82">
         <v>0.22106</v>
@@ -5416,19 +5419,19 @@
         <v>5504665</v>
       </c>
       <c r="Q82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R82" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S82" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T82" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U82" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="83" spans="1:21">
@@ -5442,7 +5445,7 @@
         <v>48</v>
       </c>
       <c r="E83" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F83">
         <v>0.1235</v>
@@ -5457,7 +5460,7 @@
         <v>0.3637</v>
       </c>
       <c r="L83">
-        <v>0.115</v>
+        <v>0.133</v>
       </c>
       <c r="M83">
         <v>0.22106</v>
@@ -5472,19 +5475,19 @@
         <v>5504665</v>
       </c>
       <c r="Q83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R83" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S83" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T83" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U83" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84" spans="1:21">
@@ -5501,7 +5504,7 @@
         <v>49</v>
       </c>
       <c r="E84" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F84">
         <v>0.275</v>
@@ -5516,7 +5519,7 @@
         <v>0.478</v>
       </c>
       <c r="L84">
-        <v>0.31</v>
+        <v>0.27</v>
       </c>
       <c r="M84">
         <v>0.38888</v>
@@ -5531,19 +5534,19 @@
         <v>5504665</v>
       </c>
       <c r="Q84" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R84" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S84" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T84" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U84" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="85" spans="1:21">
@@ -5560,7 +5563,7 @@
         <v>49</v>
       </c>
       <c r="E85" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F85">
         <v>0.027</v>
@@ -5575,7 +5578,7 @@
         <v>0.0532</v>
       </c>
       <c r="L85">
-        <v>0.0305</v>
+        <v>0.029</v>
       </c>
       <c r="M85">
         <v>0.03834</v>
@@ -5590,19 +5593,19 @@
         <v>5504665</v>
       </c>
       <c r="Q85" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R85" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S85" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T85" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U85" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="86" spans="1:21">
@@ -5619,7 +5622,7 @@
         <v>49</v>
       </c>
       <c r="E86" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F86">
         <v>0.027</v>
@@ -5634,7 +5637,7 @@
         <v>0.0532</v>
       </c>
       <c r="L86">
-        <v>0.0305</v>
+        <v>0.029</v>
       </c>
       <c r="M86">
         <v>0.03834</v>
@@ -5649,19 +5652,19 @@
         <v>5504665</v>
       </c>
       <c r="Q86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R86" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S86" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T86" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U86" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="87" spans="1:21">
@@ -5678,16 +5681,16 @@
         <v>49</v>
       </c>
       <c r="E87" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F87">
         <v>195</v>
       </c>
       <c r="G87">
-        <v>1166.84192507855</v>
+        <v>1129.05271428794</v>
       </c>
       <c r="H87">
-        <v>15967.2269299701</v>
+        <v>14153.789341875</v>
       </c>
       <c r="I87">
         <v>7000</v>
@@ -5699,7 +5702,7 @@
         <v>47.9166666666667</v>
       </c>
       <c r="L87">
-        <v>445</v>
+        <v>530</v>
       </c>
       <c r="M87">
         <v>1600</v>
@@ -5714,19 +5717,19 @@
         <v>5504665</v>
       </c>
       <c r="Q87" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R87" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S87" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T87" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U87" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:21">
@@ -5743,16 +5746,16 @@
         <v>49</v>
       </c>
       <c r="E88" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F88">
         <v>195</v>
       </c>
       <c r="G88">
-        <v>1166.84192507855</v>
+        <v>1129.05271428794</v>
       </c>
       <c r="H88">
-        <v>15967.2269299701</v>
+        <v>14153.789341875</v>
       </c>
       <c r="I88">
         <v>7000</v>
@@ -5764,7 +5767,7 @@
         <v>47.9166666666667</v>
       </c>
       <c r="L88">
-        <v>445</v>
+        <v>530</v>
       </c>
       <c r="M88">
         <v>1600</v>
@@ -5779,19 +5782,19 @@
         <v>5504665</v>
       </c>
       <c r="Q88" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R88" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S88" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T88" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U88" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89" spans="1:21">
@@ -5808,16 +5811,16 @@
         <v>49</v>
       </c>
       <c r="E89" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F89">
         <v>195</v>
       </c>
       <c r="G89">
-        <v>1166.84192507855</v>
+        <v>1129.05271428794</v>
       </c>
       <c r="H89">
-        <v>15967.2269299701</v>
+        <v>14153.789341875</v>
       </c>
       <c r="I89">
         <v>7000</v>
@@ -5829,7 +5832,7 @@
         <v>47.9166666666667</v>
       </c>
       <c r="L89">
-        <v>445</v>
+        <v>530</v>
       </c>
       <c r="M89">
         <v>1600</v>
@@ -5844,19 +5847,19 @@
         <v>5504665</v>
       </c>
       <c r="Q89" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R89" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S89" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T89" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U89" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="90" spans="1:21">
@@ -5873,16 +5876,16 @@
         <v>49</v>
       </c>
       <c r="E90" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F90">
         <v>195</v>
       </c>
       <c r="G90">
-        <v>1166.84192507855</v>
+        <v>1129.05271428794</v>
       </c>
       <c r="H90">
-        <v>15967.2269299701</v>
+        <v>14153.789341875</v>
       </c>
       <c r="I90">
         <v>7000</v>
@@ -5894,7 +5897,7 @@
         <v>47.9166666666667</v>
       </c>
       <c r="L90">
-        <v>445</v>
+        <v>530</v>
       </c>
       <c r="M90">
         <v>1600</v>
@@ -5909,19 +5912,19 @@
         <v>5504665</v>
       </c>
       <c r="Q90" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R90" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S90" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T90" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U90" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="91" spans="1:21">
@@ -5938,7 +5941,7 @@
         <v>49</v>
       </c>
       <c r="E91" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F91">
         <v>0.16778</v>
@@ -5953,7 +5956,7 @@
         <v>0.36713</v>
       </c>
       <c r="L91">
-        <v>0.1559</v>
+        <v>0.1613</v>
       </c>
       <c r="M91">
         <v>0.30054</v>
@@ -5968,19 +5971,19 @@
         <v>5504665</v>
       </c>
       <c r="Q91" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R91" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S91" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T91" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U91" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="92" spans="1:21">
@@ -5997,7 +6000,7 @@
         <v>49</v>
       </c>
       <c r="E92" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F92">
         <v>0.16778</v>
@@ -6012,7 +6015,7 @@
         <v>0.36713</v>
       </c>
       <c r="L92">
-        <v>0.1559</v>
+        <v>0.1613</v>
       </c>
       <c r="M92">
         <v>0.30054</v>
@@ -6027,19 +6030,19 @@
         <v>5504665</v>
       </c>
       <c r="Q92" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R92" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S92" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T92" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U92" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="93" spans="1:21">
@@ -6056,7 +6059,7 @@
         <v>49</v>
       </c>
       <c r="E93" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F93">
         <v>1.815</v>
@@ -6071,7 +6074,7 @@
         <v>2.733</v>
       </c>
       <c r="L93">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="M93">
         <v>2.4674</v>
@@ -6086,19 +6089,19 @@
         <v>5504665</v>
       </c>
       <c r="Q93" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R93" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S93" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T93" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U93" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="94" spans="1:21">
@@ -6115,7 +6118,7 @@
         <v>49</v>
       </c>
       <c r="E94" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F94">
         <v>1.815</v>
@@ -6130,7 +6133,7 @@
         <v>2.733</v>
       </c>
       <c r="L94">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="M94">
         <v>2.4674</v>
@@ -6145,19 +6148,19 @@
         <v>5504665</v>
       </c>
       <c r="Q94" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R94" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S94" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T94" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U94" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="95" spans="1:21">
@@ -6171,7 +6174,7 @@
         <v>49</v>
       </c>
       <c r="E95" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F95">
         <v>2.206</v>
@@ -6186,7 +6189,7 @@
         <v>3.2547</v>
       </c>
       <c r="L95">
-        <v>1.998</v>
+        <v>2.006</v>
       </c>
       <c r="M95">
         <v>2.964</v>
@@ -6201,19 +6204,19 @@
         <v>5504665</v>
       </c>
       <c r="Q95" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R95" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S95" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T95" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U95" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="96" spans="1:21">
@@ -6227,7 +6230,7 @@
         <v>49</v>
       </c>
       <c r="E96" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F96">
         <v>2.206</v>
@@ -6242,7 +6245,7 @@
         <v>3.2547</v>
       </c>
       <c r="L96">
-        <v>1.998</v>
+        <v>2.006</v>
       </c>
       <c r="M96">
         <v>2.964</v>
@@ -6257,19 +6260,19 @@
         <v>5504665</v>
       </c>
       <c r="Q96" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R96" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S96" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T96" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U96" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="97" spans="1:21">
@@ -6283,7 +6286,7 @@
         <v>49</v>
       </c>
       <c r="E97" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F97">
         <v>3.555</v>
@@ -6298,7 +6301,7 @@
         <v>4.595</v>
       </c>
       <c r="L97">
-        <v>3.02</v>
+        <v>3.1</v>
       </c>
       <c r="M97">
         <v>4.0738</v>
@@ -6313,19 +6316,19 @@
         <v>5504665</v>
       </c>
       <c r="Q97" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R97" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S97" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T97" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U97" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="98" spans="1:21">
@@ -6339,7 +6342,7 @@
         <v>49</v>
       </c>
       <c r="E98" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F98">
         <v>3.555</v>
@@ -6354,7 +6357,7 @@
         <v>4.595</v>
       </c>
       <c r="L98">
-        <v>3.02</v>
+        <v>3.1</v>
       </c>
       <c r="M98">
         <v>4.0738</v>
@@ -6369,19 +6372,19 @@
         <v>5504665</v>
       </c>
       <c r="Q98" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R98" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S98" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T98" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U98" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="99" spans="1:21">
@@ -6395,7 +6398,7 @@
         <v>49</v>
       </c>
       <c r="E99" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F99">
         <v>0.1225</v>
@@ -6410,7 +6413,7 @@
         <v>0.3055</v>
       </c>
       <c r="L99">
-        <v>0.1215</v>
+        <v>0.133</v>
       </c>
       <c r="M99">
         <v>0.22268</v>
@@ -6425,19 +6428,19 @@
         <v>5504665</v>
       </c>
       <c r="Q99" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R99" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S99" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T99" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U99" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="100" spans="1:21">
@@ -6451,7 +6454,7 @@
         <v>49</v>
       </c>
       <c r="E100" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F100">
         <v>0.1225</v>
@@ -6466,7 +6469,7 @@
         <v>0.3055</v>
       </c>
       <c r="L100">
-        <v>0.1215</v>
+        <v>0.133</v>
       </c>
       <c r="M100">
         <v>0.22268</v>
@@ -6481,19 +6484,19 @@
         <v>5504665</v>
       </c>
       <c r="Q100" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R100" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S100" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T100" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U100" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="101" spans="1:21">
@@ -6510,7 +6513,7 @@
         <v>50</v>
       </c>
       <c r="E101" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F101">
         <v>0.29</v>
@@ -6540,19 +6543,19 @@
         <v>5504665</v>
       </c>
       <c r="Q101" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R101" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S101" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T101" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U101" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="102" spans="1:21">
@@ -6569,7 +6572,7 @@
         <v>50</v>
       </c>
       <c r="E102" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F102">
         <v>0.0295</v>
@@ -6584,7 +6587,7 @@
         <v>0.0621</v>
       </c>
       <c r="L102">
-        <v>0.034</v>
+        <v>0.032</v>
       </c>
       <c r="M102">
         <v>0.04868</v>
@@ -6599,19 +6602,19 @@
         <v>5504665</v>
       </c>
       <c r="Q102" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R102" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S102" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T102" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U102" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="103" spans="1:21">
@@ -6628,7 +6631,7 @@
         <v>50</v>
       </c>
       <c r="E103" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F103">
         <v>0.0295</v>
@@ -6643,7 +6646,7 @@
         <v>0.0621</v>
       </c>
       <c r="L103">
-        <v>0.034</v>
+        <v>0.032</v>
       </c>
       <c r="M103">
         <v>0.04868</v>
@@ -6658,19 +6661,19 @@
         <v>5504665</v>
       </c>
       <c r="Q103" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R103" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S103" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T103" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U103" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="104" spans="1:21">
@@ -6687,19 +6690,19 @@
         <v>50</v>
       </c>
       <c r="E104" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F104">
         <v>380</v>
       </c>
       <c r="G104">
-        <v>1641.10900894266</v>
+        <v>1607.72513529189</v>
       </c>
       <c r="H104">
-        <v>15967.2269299701</v>
+        <v>14153.789341875</v>
       </c>
       <c r="I104">
-        <v>8104.182</v>
+        <v>8125.32762</v>
       </c>
       <c r="J104">
         <v>39.5833333333333</v>
@@ -6708,7 +6711,7 @@
         <v>60.4166666666667</v>
       </c>
       <c r="L104">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="M104">
         <v>3421.04</v>
@@ -6723,19 +6726,19 @@
         <v>5504665</v>
       </c>
       <c r="Q104" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R104" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S104" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T104" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U104" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="105" spans="1:21">
@@ -6752,19 +6755,19 @@
         <v>50</v>
       </c>
       <c r="E105" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F105">
         <v>380</v>
       </c>
       <c r="G105">
-        <v>1641.10900894266</v>
+        <v>1607.72513529189</v>
       </c>
       <c r="H105">
-        <v>15967.2269299701</v>
+        <v>14153.789341875</v>
       </c>
       <c r="I105">
-        <v>8104.182</v>
+        <v>8125.32762</v>
       </c>
       <c r="J105">
         <v>39.5833333333333</v>
@@ -6773,7 +6776,7 @@
         <v>60.4166666666667</v>
       </c>
       <c r="L105">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="M105">
         <v>3421.04</v>
@@ -6788,19 +6791,19 @@
         <v>5504665</v>
       </c>
       <c r="Q105" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R105" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S105" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T105" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U105" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="106" spans="1:21">
@@ -6817,19 +6820,19 @@
         <v>50</v>
       </c>
       <c r="E106" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F106">
         <v>380</v>
       </c>
       <c r="G106">
-        <v>1641.10900894266</v>
+        <v>1607.72513529189</v>
       </c>
       <c r="H106">
-        <v>15967.2269299701</v>
+        <v>14153.789341875</v>
       </c>
       <c r="I106">
-        <v>8104.182</v>
+        <v>8125.32762</v>
       </c>
       <c r="J106">
         <v>39.5833333333333</v>
@@ -6838,7 +6841,7 @@
         <v>60.4166666666667</v>
       </c>
       <c r="L106">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="M106">
         <v>3421.04</v>
@@ -6853,19 +6856,19 @@
         <v>5504665</v>
       </c>
       <c r="Q106" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R106" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S106" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T106" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U106" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="107" spans="1:21">
@@ -6882,19 +6885,19 @@
         <v>50</v>
       </c>
       <c r="E107" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F107">
         <v>380</v>
       </c>
       <c r="G107">
-        <v>1641.10900894266</v>
+        <v>1607.72513529189</v>
       </c>
       <c r="H107">
-        <v>15967.2269299701</v>
+        <v>14153.789341875</v>
       </c>
       <c r="I107">
-        <v>8104.182</v>
+        <v>8125.32762</v>
       </c>
       <c r="J107">
         <v>39.5833333333333</v>
@@ -6903,7 +6906,7 @@
         <v>60.4166666666667</v>
       </c>
       <c r="L107">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="M107">
         <v>3421.04</v>
@@ -6918,19 +6921,19 @@
         <v>5504665</v>
       </c>
       <c r="Q107" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R107" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S107" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T107" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U107" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="108" spans="1:21">
@@ -6947,7 +6950,7 @@
         <v>50</v>
       </c>
       <c r="E108" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F108">
         <v>0.15223</v>
@@ -6977,19 +6980,19 @@
         <v>5504665</v>
       </c>
       <c r="Q108" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R108" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S108" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T108" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U108" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="109" spans="1:21">
@@ -7006,7 +7009,7 @@
         <v>50</v>
       </c>
       <c r="E109" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F109">
         <v>0.15223</v>
@@ -7036,19 +7039,19 @@
         <v>5504665</v>
       </c>
       <c r="Q109" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R109" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S109" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T109" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U109" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="110" spans="1:21">
@@ -7065,7 +7068,7 @@
         <v>50</v>
       </c>
       <c r="E110" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F110">
         <v>1.86</v>
@@ -7080,7 +7083,7 @@
         <v>2.953</v>
       </c>
       <c r="L110">
-        <v>1.255</v>
+        <v>1.39</v>
       </c>
       <c r="M110">
         <v>2.4572</v>
@@ -7095,19 +7098,19 @@
         <v>5504665</v>
       </c>
       <c r="Q110" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R110" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S110" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T110" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U110" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="111" spans="1:21">
@@ -7124,7 +7127,7 @@
         <v>50</v>
       </c>
       <c r="E111" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F111">
         <v>1.86</v>
@@ -7139,7 +7142,7 @@
         <v>2.953</v>
       </c>
       <c r="L111">
-        <v>1.255</v>
+        <v>1.39</v>
       </c>
       <c r="M111">
         <v>2.4572</v>
@@ -7154,19 +7157,19 @@
         <v>5504665</v>
       </c>
       <c r="Q111" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R111" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S111" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T111" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U111" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="112" spans="1:21">
@@ -7180,7 +7183,7 @@
         <v>50</v>
       </c>
       <c r="E112" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F112">
         <v>2.2575</v>
@@ -7195,7 +7198,7 @@
         <v>3.3737</v>
       </c>
       <c r="L112">
-        <v>2.0715</v>
+        <v>2.123</v>
       </c>
       <c r="M112">
         <v>2.92076</v>
@@ -7210,19 +7213,19 @@
         <v>5504665</v>
       </c>
       <c r="Q112" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R112" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S112" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T112" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U112" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="113" spans="1:21">
@@ -7236,7 +7239,7 @@
         <v>50</v>
       </c>
       <c r="E113" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F113">
         <v>2.2575</v>
@@ -7251,7 +7254,7 @@
         <v>3.3737</v>
       </c>
       <c r="L113">
-        <v>2.0715</v>
+        <v>2.123</v>
       </c>
       <c r="M113">
         <v>2.92076</v>
@@ -7266,19 +7269,19 @@
         <v>5504665</v>
       </c>
       <c r="Q113" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R113" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S113" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T113" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U113" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="114" spans="1:21">
@@ -7292,7 +7295,7 @@
         <v>50</v>
       </c>
       <c r="E114" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F114">
         <v>3.555</v>
@@ -7307,7 +7310,7 @@
         <v>4.603</v>
       </c>
       <c r="L114">
-        <v>3.13</v>
+        <v>3.22</v>
       </c>
       <c r="M114">
         <v>4.021</v>
@@ -7322,19 +7325,19 @@
         <v>5504665</v>
       </c>
       <c r="Q114" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R114" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S114" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T114" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U114" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="115" spans="1:21">
@@ -7348,7 +7351,7 @@
         <v>50</v>
       </c>
       <c r="E115" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F115">
         <v>3.555</v>
@@ -7363,7 +7366,7 @@
         <v>4.603</v>
       </c>
       <c r="L115">
-        <v>3.13</v>
+        <v>3.22</v>
       </c>
       <c r="M115">
         <v>4.021</v>
@@ -7378,19 +7381,19 @@
         <v>5504665</v>
       </c>
       <c r="Q115" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R115" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S115" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T115" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U115" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="116" spans="1:21">
@@ -7404,7 +7407,7 @@
         <v>50</v>
       </c>
       <c r="E116" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F116">
         <v>0.123</v>
@@ -7419,7 +7422,7 @@
         <v>0.3513</v>
       </c>
       <c r="L116">
-        <v>0.128</v>
+        <v>0.138</v>
       </c>
       <c r="M116">
         <v>0.22502</v>
@@ -7434,19 +7437,19 @@
         <v>5504665</v>
       </c>
       <c r="Q116" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R116" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S116" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T116" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U116" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="117" spans="1:21">
@@ -7460,7 +7463,7 @@
         <v>50</v>
       </c>
       <c r="E117" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F117">
         <v>0.123</v>
@@ -7475,7 +7478,7 @@
         <v>0.3513</v>
       </c>
       <c r="L117">
-        <v>0.128</v>
+        <v>0.138</v>
       </c>
       <c r="M117">
         <v>0.22502</v>
@@ -7490,19 +7493,19 @@
         <v>5504665</v>
       </c>
       <c r="Q117" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R117" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S117" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T117" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U117" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="118" spans="1:21">
@@ -7519,7 +7522,7 @@
         <v>51</v>
       </c>
       <c r="E118" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F118">
         <v>0.305</v>
@@ -7534,7 +7537,7 @@
         <v>0.478</v>
       </c>
       <c r="L118">
-        <v>0.25</v>
+        <v>0.275</v>
       </c>
       <c r="M118">
         <v>0.3972</v>
@@ -7549,19 +7552,19 @@
         <v>5504665</v>
       </c>
       <c r="Q118" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R118" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S118" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T118" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U118" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="119" spans="1:21">
@@ -7578,7 +7581,7 @@
         <v>51</v>
       </c>
       <c r="E119" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F119">
         <v>0.03</v>
@@ -7593,7 +7596,7 @@
         <v>0.062</v>
       </c>
       <c r="L119">
-        <v>0.036</v>
+        <v>0.0305</v>
       </c>
       <c r="M119">
         <v>0.048</v>
@@ -7608,19 +7611,19 @@
         <v>5504665</v>
       </c>
       <c r="Q119" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R119" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S119" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T119" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U119" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="120" spans="1:21">
@@ -7637,7 +7640,7 @@
         <v>51</v>
       </c>
       <c r="E120" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F120">
         <v>0.03</v>
@@ -7652,7 +7655,7 @@
         <v>0.062</v>
       </c>
       <c r="L120">
-        <v>0.036</v>
+        <v>0.0305</v>
       </c>
       <c r="M120">
         <v>0.048</v>
@@ -7667,19 +7670,19 @@
         <v>5504665</v>
       </c>
       <c r="Q120" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R120" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S120" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T120" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U120" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="121" spans="1:21">
@@ -7696,16 +7699,16 @@
         <v>51</v>
       </c>
       <c r="E121" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F121">
         <v>355</v>
       </c>
       <c r="G121">
-        <v>1080.17640050955</v>
+        <v>1084.3895241638</v>
       </c>
       <c r="H121">
-        <v>9941.82002547732</v>
+        <v>10153.2762081898</v>
       </c>
       <c r="I121">
         <v>5199</v>
@@ -7717,7 +7720,7 @@
         <v>58</v>
       </c>
       <c r="L121">
-        <v>568</v>
+        <v>514</v>
       </c>
       <c r="M121">
         <v>1600</v>
@@ -7732,19 +7735,19 @@
         <v>5504665</v>
       </c>
       <c r="Q121" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R121" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S121" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T121" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U121" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="122" spans="1:21">
@@ -7761,16 +7764,16 @@
         <v>51</v>
       </c>
       <c r="E122" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F122">
         <v>355</v>
       </c>
       <c r="G122">
-        <v>1080.17640050955</v>
+        <v>1084.3895241638</v>
       </c>
       <c r="H122">
-        <v>9941.82002547732</v>
+        <v>10153.2762081898</v>
       </c>
       <c r="I122">
         <v>5199</v>
@@ -7782,7 +7785,7 @@
         <v>58</v>
       </c>
       <c r="L122">
-        <v>568</v>
+        <v>514</v>
       </c>
       <c r="M122">
         <v>1600</v>
@@ -7797,19 +7800,19 @@
         <v>5504665</v>
       </c>
       <c r="Q122" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R122" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S122" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T122" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U122" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="123" spans="1:21">
@@ -7826,16 +7829,16 @@
         <v>51</v>
       </c>
       <c r="E123" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F123">
         <v>355</v>
       </c>
       <c r="G123">
-        <v>1080.17640050955</v>
+        <v>1084.3895241638</v>
       </c>
       <c r="H123">
-        <v>9941.82002547732</v>
+        <v>10153.2762081898</v>
       </c>
       <c r="I123">
         <v>5199</v>
@@ -7847,7 +7850,7 @@
         <v>58</v>
       </c>
       <c r="L123">
-        <v>568</v>
+        <v>514</v>
       </c>
       <c r="M123">
         <v>1600</v>
@@ -7862,19 +7865,19 @@
         <v>5504665</v>
       </c>
       <c r="Q123" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R123" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S123" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T123" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U123" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="124" spans="1:21">
@@ -7891,16 +7894,16 @@
         <v>51</v>
       </c>
       <c r="E124" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F124">
         <v>355</v>
       </c>
       <c r="G124">
-        <v>1080.17640050955</v>
+        <v>1084.3895241638</v>
       </c>
       <c r="H124">
-        <v>9941.82002547732</v>
+        <v>10153.2762081898</v>
       </c>
       <c r="I124">
         <v>5199</v>
@@ -7912,7 +7915,7 @@
         <v>58</v>
       </c>
       <c r="L124">
-        <v>568</v>
+        <v>514</v>
       </c>
       <c r="M124">
         <v>1600</v>
@@ -7927,19 +7930,19 @@
         <v>5504665</v>
       </c>
       <c r="Q124" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R124" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S124" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T124" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U124" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="125" spans="1:21">
@@ -7956,7 +7959,7 @@
         <v>51</v>
       </c>
       <c r="E125" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F125">
         <v>0.12488</v>
@@ -7971,7 +7974,7 @@
         <v>0.32755</v>
       </c>
       <c r="L125">
-        <v>0.11194</v>
+        <v>0.04296</v>
       </c>
       <c r="M125">
         <v>0.25351</v>
@@ -7986,19 +7989,19 @@
         <v>5504665</v>
       </c>
       <c r="Q125" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R125" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S125" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T125" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U125" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="126" spans="1:21">
@@ -8015,7 +8018,7 @@
         <v>51</v>
       </c>
       <c r="E126" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F126">
         <v>0.12488</v>
@@ -8030,7 +8033,7 @@
         <v>0.32755</v>
       </c>
       <c r="L126">
-        <v>0.11194</v>
+        <v>0.04296</v>
       </c>
       <c r="M126">
         <v>0.25351</v>
@@ -8045,19 +8048,19 @@
         <v>5504665</v>
       </c>
       <c r="Q126" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R126" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S126" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T126" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U126" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="127" spans="1:21">
@@ -8074,7 +8077,7 @@
         <v>51</v>
       </c>
       <c r="E127" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F127">
         <v>1.825</v>
@@ -8089,7 +8092,7 @@
         <v>2.71</v>
       </c>
       <c r="L127">
-        <v>1.17</v>
+        <v>1.255</v>
       </c>
       <c r="M127">
         <v>2.35</v>
@@ -8104,19 +8107,19 @@
         <v>5504665</v>
       </c>
       <c r="Q127" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R127" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S127" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T127" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U127" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="128" spans="1:21">
@@ -8133,7 +8136,7 @@
         <v>51</v>
       </c>
       <c r="E128" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F128">
         <v>1.825</v>
@@ -8148,7 +8151,7 @@
         <v>2.71</v>
       </c>
       <c r="L128">
-        <v>1.17</v>
+        <v>1.255</v>
       </c>
       <c r="M128">
         <v>2.35</v>
@@ -8163,19 +8166,19 @@
         <v>5504665</v>
       </c>
       <c r="Q128" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R128" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S128" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T128" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U128" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="129" spans="1:21">
@@ -8189,7 +8192,7 @@
         <v>51</v>
       </c>
       <c r="E129" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F129">
         <v>2.189</v>
@@ -8204,7 +8207,7 @@
         <v>3.176</v>
       </c>
       <c r="L129">
-        <v>2.006</v>
+        <v>1.79</v>
       </c>
       <c r="M129">
         <v>2.844</v>
@@ -8219,19 +8222,19 @@
         <v>5504665</v>
       </c>
       <c r="Q129" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R129" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S129" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T129" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U129" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="130" spans="1:21">
@@ -8245,7 +8248,7 @@
         <v>51</v>
       </c>
       <c r="E130" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F130">
         <v>2.189</v>
@@ -8260,7 +8263,7 @@
         <v>3.176</v>
       </c>
       <c r="L130">
-        <v>2.006</v>
+        <v>1.79</v>
       </c>
       <c r="M130">
         <v>2.844</v>
@@ -8275,19 +8278,19 @@
         <v>5504665</v>
       </c>
       <c r="Q130" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R130" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S130" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T130" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U130" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="131" spans="1:21">
@@ -8301,7 +8304,7 @@
         <v>51</v>
       </c>
       <c r="E131" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F131">
         <v>3.415</v>
@@ -8316,7 +8319,7 @@
         <v>4.4</v>
       </c>
       <c r="L131">
-        <v>2.99</v>
+        <v>2.88</v>
       </c>
       <c r="M131">
         <v>3.97</v>
@@ -8331,19 +8334,19 @@
         <v>5504665</v>
       </c>
       <c r="Q131" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R131" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S131" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T131" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U131" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="132" spans="1:21">
@@ -8357,7 +8360,7 @@
         <v>51</v>
       </c>
       <c r="E132" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F132">
         <v>3.415</v>
@@ -8372,7 +8375,7 @@
         <v>4.4</v>
       </c>
       <c r="L132">
-        <v>2.99</v>
+        <v>2.88</v>
       </c>
       <c r="M132">
         <v>3.97</v>
@@ -8387,19 +8390,19 @@
         <v>5504665</v>
       </c>
       <c r="Q132" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R132" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S132" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T132" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U132" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="133" spans="1:21">
@@ -8413,7 +8416,7 @@
         <v>51</v>
       </c>
       <c r="E133" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F133">
         <v>0.1215</v>
@@ -8428,7 +8431,7 @@
         <v>0.341</v>
       </c>
       <c r="L133">
-        <v>0.128</v>
+        <v>0.1255</v>
       </c>
       <c r="M133">
         <v>0.224</v>
@@ -8443,19 +8446,19 @@
         <v>5504665</v>
       </c>
       <c r="Q133" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R133" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S133" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T133" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U133" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="134" spans="1:21">
@@ -8469,7 +8472,7 @@
         <v>51</v>
       </c>
       <c r="E134" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F134">
         <v>0.1215</v>
@@ -8484,7 +8487,7 @@
         <v>0.341</v>
       </c>
       <c r="L134">
-        <v>0.128</v>
+        <v>0.1255</v>
       </c>
       <c r="M134">
         <v>0.224</v>
@@ -8499,19 +8502,1028 @@
         <v>5504665</v>
       </c>
       <c r="Q134" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R134" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S134" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T134" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U134" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21">
+      <c r="A135" t="s">
+        <v>21</v>
+      </c>
+      <c r="B135" t="s">
+        <v>30</v>
+      </c>
+      <c r="C135" t="s">
+        <v>40</v>
+      </c>
+      <c r="D135" t="s">
+        <v>52</v>
+      </c>
+      <c r="E135" t="s">
+        <v>53</v>
+      </c>
+      <c r="F135">
+        <v>0.31</v>
+      </c>
+      <c r="G135">
+        <v>0.307638888888889</v>
+      </c>
+      <c r="H135">
+        <v>0.48</v>
+      </c>
+      <c r="I135">
+        <v>0.477</v>
+      </c>
+      <c r="L135">
+        <v>0.3</v>
+      </c>
+      <c r="M135">
+        <v>0.4038</v>
+      </c>
+      <c r="N135">
+        <v>0.4662</v>
+      </c>
+      <c r="O135">
+        <v>1791973.7</v>
+      </c>
+      <c r="P135">
+        <v>5504665</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>54</v>
+      </c>
+      <c r="R135" t="s">
+        <v>55</v>
+      </c>
+      <c r="S135" t="s">
+        <v>56</v>
+      </c>
+      <c r="T135" t="s">
+        <v>57</v>
+      </c>
+      <c r="U135" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21">
+      <c r="A136" t="s">
+        <v>21</v>
+      </c>
+      <c r="B136" t="s">
+        <v>22</v>
+      </c>
+      <c r="C136" t="s">
+        <v>40</v>
+      </c>
+      <c r="D136" t="s">
+        <v>52</v>
+      </c>
+      <c r="E136" t="s">
+        <v>53</v>
+      </c>
+      <c r="F136">
+        <v>0.0285</v>
+      </c>
+      <c r="G136">
+        <v>0.0328620689655172</v>
+      </c>
+      <c r="H136">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="I136">
+        <v>0.0616</v>
+      </c>
+      <c r="L136">
+        <v>0.0305</v>
+      </c>
+      <c r="M136">
+        <v>0.04464</v>
+      </c>
+      <c r="N136">
+        <v>0.05772</v>
+      </c>
+      <c r="O136">
+        <v>1791973.7</v>
+      </c>
+      <c r="P136">
+        <v>5504665</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>54</v>
+      </c>
+      <c r="R136" t="s">
+        <v>55</v>
+      </c>
+      <c r="S136" t="s">
+        <v>56</v>
+      </c>
+      <c r="T136" t="s">
+        <v>57</v>
+      </c>
+      <c r="U136" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21">
+      <c r="A137" t="s">
+        <v>21</v>
+      </c>
+      <c r="B137" t="s">
+        <v>23</v>
+      </c>
+      <c r="C137" t="s">
+        <v>40</v>
+      </c>
+      <c r="D137" t="s">
+        <v>52</v>
+      </c>
+      <c r="E137" t="s">
+        <v>53</v>
+      </c>
+      <c r="F137">
+        <v>0.0285</v>
+      </c>
+      <c r="G137">
+        <v>0.0328620689655172</v>
+      </c>
+      <c r="H137">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="I137">
+        <v>0.0616</v>
+      </c>
+      <c r="L137">
+        <v>0.0305</v>
+      </c>
+      <c r="M137">
+        <v>0.04464</v>
+      </c>
+      <c r="N137">
+        <v>0.05772</v>
+      </c>
+      <c r="O137">
+        <v>1791973.7</v>
+      </c>
+      <c r="P137">
+        <v>5504665</v>
+      </c>
+      <c r="Q137" t="s">
+        <v>54</v>
+      </c>
+      <c r="R137" t="s">
+        <v>55</v>
+      </c>
+      <c r="S137" t="s">
+        <v>56</v>
+      </c>
+      <c r="T137" t="s">
+        <v>57</v>
+      </c>
+      <c r="U137" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21">
+      <c r="A138" t="s">
+        <v>21</v>
+      </c>
+      <c r="B138" t="s">
+        <v>31</v>
+      </c>
+      <c r="C138" t="s">
+        <v>42</v>
+      </c>
+      <c r="D138" t="s">
+        <v>52</v>
+      </c>
+      <c r="E138" t="s">
+        <v>53</v>
+      </c>
+      <c r="F138">
+        <v>328</v>
+      </c>
+      <c r="G138">
+        <v>1024.11165876189</v>
+      </c>
+      <c r="H138">
+        <v>10153.2762081898</v>
+      </c>
+      <c r="I138">
+        <v>4793.4</v>
+      </c>
+      <c r="J138">
+        <v>32.7586206896552</v>
+      </c>
+      <c r="K138">
+        <v>58.6206896551724</v>
+      </c>
+      <c r="L138">
+        <v>511.4</v>
+      </c>
+      <c r="M138">
+        <v>1728</v>
+      </c>
+      <c r="N138">
+        <v>3865.84</v>
+      </c>
+      <c r="O138">
+        <v>1791973.7</v>
+      </c>
+      <c r="P138">
+        <v>5504665</v>
+      </c>
+      <c r="Q138" t="s">
+        <v>54</v>
+      </c>
+      <c r="R138" t="s">
+        <v>55</v>
+      </c>
+      <c r="S138" t="s">
+        <v>56</v>
+      </c>
+      <c r="T138" t="s">
+        <v>57</v>
+      </c>
+      <c r="U138" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21">
+      <c r="A139" t="s">
+        <v>21</v>
+      </c>
+      <c r="B139" t="s">
+        <v>32</v>
+      </c>
+      <c r="C139" t="s">
+        <v>42</v>
+      </c>
+      <c r="D139" t="s">
+        <v>52</v>
+      </c>
+      <c r="E139" t="s">
+        <v>53</v>
+      </c>
+      <c r="F139">
+        <v>328</v>
+      </c>
+      <c r="G139">
+        <v>1024.11165876189</v>
+      </c>
+      <c r="H139">
+        <v>10153.2762081898</v>
+      </c>
+      <c r="I139">
+        <v>4793.4</v>
+      </c>
+      <c r="J139">
+        <v>32.7586206896552</v>
+      </c>
+      <c r="K139">
+        <v>58.6206896551724</v>
+      </c>
+      <c r="L139">
+        <v>511.4</v>
+      </c>
+      <c r="M139">
+        <v>1728</v>
+      </c>
+      <c r="N139">
+        <v>3865.84</v>
+      </c>
+      <c r="O139">
+        <v>1791973.7</v>
+      </c>
+      <c r="P139">
+        <v>5504665</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>54</v>
+      </c>
+      <c r="R139" t="s">
+        <v>55</v>
+      </c>
+      <c r="S139" t="s">
+        <v>56</v>
+      </c>
+      <c r="T139" t="s">
+        <v>57</v>
+      </c>
+      <c r="U139" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21">
+      <c r="A140" t="s">
+        <v>21</v>
+      </c>
+      <c r="B140" t="s">
+        <v>33</v>
+      </c>
+      <c r="C140" t="s">
+        <v>42</v>
+      </c>
+      <c r="D140" t="s">
+        <v>52</v>
+      </c>
+      <c r="E140" t="s">
+        <v>53</v>
+      </c>
+      <c r="F140">
+        <v>328</v>
+      </c>
+      <c r="G140">
+        <v>1024.11165876189</v>
+      </c>
+      <c r="H140">
+        <v>10153.2762081898</v>
+      </c>
+      <c r="I140">
+        <v>4793.4</v>
+      </c>
+      <c r="J140">
+        <v>32.7586206896552</v>
+      </c>
+      <c r="K140">
+        <v>58.6206896551724</v>
+      </c>
+      <c r="L140">
+        <v>511.4</v>
+      </c>
+      <c r="M140">
+        <v>1728</v>
+      </c>
+      <c r="N140">
+        <v>3865.84</v>
+      </c>
+      <c r="O140">
+        <v>1791973.7</v>
+      </c>
+      <c r="P140">
+        <v>5504665</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>54</v>
+      </c>
+      <c r="R140" t="s">
+        <v>55</v>
+      </c>
+      <c r="S140" t="s">
+        <v>56</v>
+      </c>
+      <c r="T140" t="s">
+        <v>57</v>
+      </c>
+      <c r="U140" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21">
+      <c r="A141" t="s">
+        <v>21</v>
+      </c>
+      <c r="B141" t="s">
+        <v>34</v>
+      </c>
+      <c r="C141" t="s">
+        <v>42</v>
+      </c>
+      <c r="D141" t="s">
+        <v>52</v>
+      </c>
+      <c r="E141" t="s">
+        <v>53</v>
+      </c>
+      <c r="F141">
+        <v>328</v>
+      </c>
+      <c r="G141">
+        <v>1024.11165876189</v>
+      </c>
+      <c r="H141">
+        <v>10153.2762081898</v>
+      </c>
+      <c r="I141">
+        <v>4793.4</v>
+      </c>
+      <c r="J141">
+        <v>32.7586206896552</v>
+      </c>
+      <c r="K141">
+        <v>58.6206896551724</v>
+      </c>
+      <c r="L141">
+        <v>511.4</v>
+      </c>
+      <c r="M141">
+        <v>1728</v>
+      </c>
+      <c r="N141">
+        <v>3865.84</v>
+      </c>
+      <c r="O141">
+        <v>1791973.7</v>
+      </c>
+      <c r="P141">
+        <v>5504665</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>54</v>
+      </c>
+      <c r="R141" t="s">
+        <v>55</v>
+      </c>
+      <c r="S141" t="s">
+        <v>56</v>
+      </c>
+      <c r="T141" t="s">
+        <v>57</v>
+      </c>
+      <c r="U141" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21">
+      <c r="A142" t="s">
+        <v>21</v>
+      </c>
+      <c r="B142" t="s">
+        <v>28</v>
+      </c>
+      <c r="C142" t="s">
+        <v>41</v>
+      </c>
+      <c r="D142" t="s">
+        <v>52</v>
+      </c>
+      <c r="E142" t="s">
+        <v>53</v>
+      </c>
+      <c r="F142">
+        <v>0.12902</v>
+      </c>
+      <c r="G142">
+        <v>0.144992140824533</v>
+      </c>
+      <c r="H142">
+        <v>0.464528571498283</v>
+      </c>
+      <c r="I142">
+        <v>0.39811</v>
+      </c>
+      <c r="L142">
+        <v>0.11194</v>
+      </c>
+      <c r="M142">
+        <v>0.2696</v>
+      </c>
+      <c r="N142">
+        <v>0.32818</v>
+      </c>
+      <c r="O142">
+        <v>1791973.7</v>
+      </c>
+      <c r="P142">
+        <v>5504665</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>54</v>
+      </c>
+      <c r="R142" t="s">
+        <v>55</v>
+      </c>
+      <c r="S142" t="s">
+        <v>56</v>
+      </c>
+      <c r="T142" t="s">
+        <v>57</v>
+      </c>
+      <c r="U142" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21">
+      <c r="A143" t="s">
+        <v>21</v>
+      </c>
+      <c r="B143" t="s">
+        <v>29</v>
+      </c>
+      <c r="C143" t="s">
+        <v>41</v>
+      </c>
+      <c r="D143" t="s">
+        <v>52</v>
+      </c>
+      <c r="E143" t="s">
+        <v>53</v>
+      </c>
+      <c r="F143">
+        <v>0.12902</v>
+      </c>
+      <c r="G143">
+        <v>0.144992140824533</v>
+      </c>
+      <c r="H143">
+        <v>0.464528571498283</v>
+      </c>
+      <c r="I143">
+        <v>0.39811</v>
+      </c>
+      <c r="L143">
+        <v>0.11194</v>
+      </c>
+      <c r="M143">
+        <v>0.2696</v>
+      </c>
+      <c r="N143">
+        <v>0.32818</v>
+      </c>
+      <c r="O143">
+        <v>1791973.7</v>
+      </c>
+      <c r="P143">
+        <v>5504665</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>54</v>
+      </c>
+      <c r="R143" t="s">
+        <v>55</v>
+      </c>
+      <c r="S143" t="s">
+        <v>56</v>
+      </c>
+      <c r="T143" t="s">
+        <v>57</v>
+      </c>
+      <c r="U143" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21">
+      <c r="A144" t="s">
+        <v>21</v>
+      </c>
+      <c r="B144" t="s">
+        <v>24</v>
+      </c>
+      <c r="C144" t="s">
+        <v>41</v>
+      </c>
+      <c r="D144" t="s">
+        <v>52</v>
+      </c>
+      <c r="E144" t="s">
+        <v>53</v>
+      </c>
+      <c r="F144">
+        <v>1.825</v>
+      </c>
+      <c r="G144">
+        <v>1.74975862068966</v>
+      </c>
+      <c r="H144">
+        <v>3.07</v>
+      </c>
+      <c r="I144">
+        <v>2.65</v>
+      </c>
+      <c r="L144">
+        <v>1.25</v>
+      </c>
+      <c r="M144">
+        <v>2.2964</v>
+      </c>
+      <c r="N144">
+        <v>2.4988</v>
+      </c>
+      <c r="O144">
+        <v>1791973.7</v>
+      </c>
+      <c r="P144">
+        <v>5504665</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>54</v>
+      </c>
+      <c r="R144" t="s">
+        <v>55</v>
+      </c>
+      <c r="S144" t="s">
+        <v>56</v>
+      </c>
+      <c r="T144" t="s">
+        <v>57</v>
+      </c>
+      <c r="U144" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21">
+      <c r="A145" t="s">
+        <v>21</v>
+      </c>
+      <c r="B145" t="s">
+        <v>25</v>
+      </c>
+      <c r="C145" t="s">
+        <v>41</v>
+      </c>
+      <c r="D145" t="s">
+        <v>52</v>
+      </c>
+      <c r="E145" t="s">
+        <v>53</v>
+      </c>
+      <c r="F145">
+        <v>1.825</v>
+      </c>
+      <c r="G145">
+        <v>1.74975862068966</v>
+      </c>
+      <c r="H145">
+        <v>3.07</v>
+      </c>
+      <c r="I145">
+        <v>2.65</v>
+      </c>
+      <c r="L145">
+        <v>1.25</v>
+      </c>
+      <c r="M145">
+        <v>2.2964</v>
+      </c>
+      <c r="N145">
+        <v>2.4988</v>
+      </c>
+      <c r="O145">
+        <v>1791973.7</v>
+      </c>
+      <c r="P145">
+        <v>5504665</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>54</v>
+      </c>
+      <c r="R145" t="s">
+        <v>55</v>
+      </c>
+      <c r="S145" t="s">
+        <v>56</v>
+      </c>
+      <c r="T145" t="s">
+        <v>57</v>
+      </c>
+      <c r="U145" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="146" spans="1:21">
+      <c r="A146" t="s">
+        <v>21</v>
+      </c>
+      <c r="B146" t="s">
+        <v>26</v>
+      </c>
+      <c r="D146" t="s">
+        <v>52</v>
+      </c>
+      <c r="E146" t="s">
+        <v>53</v>
+      </c>
+      <c r="F146">
+        <v>2.189</v>
+      </c>
+      <c r="G146">
+        <v>2.18031034482759</v>
+      </c>
+      <c r="H146">
+        <v>4.064</v>
+      </c>
+      <c r="I146">
+        <v>3.1272</v>
+      </c>
+      <c r="L146">
+        <v>1.79</v>
+      </c>
+      <c r="M146">
+        <v>2.82168</v>
+      </c>
+      <c r="N146">
+        <v>2.99408</v>
+      </c>
+      <c r="O146">
+        <v>1791973.7</v>
+      </c>
+      <c r="P146">
+        <v>5504665</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>54</v>
+      </c>
+      <c r="R146" t="s">
+        <v>55</v>
+      </c>
+      <c r="S146" t="s">
+        <v>56</v>
+      </c>
+      <c r="T146" t="s">
+        <v>57</v>
+      </c>
+      <c r="U146" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="147" spans="1:21">
+      <c r="A147" t="s">
+        <v>21</v>
+      </c>
+      <c r="B147" t="s">
+        <v>27</v>
+      </c>
+      <c r="D147" t="s">
+        <v>52</v>
+      </c>
+      <c r="E147" t="s">
+        <v>53</v>
+      </c>
+      <c r="F147">
+        <v>2.189</v>
+      </c>
+      <c r="G147">
+        <v>2.18031034482759</v>
+      </c>
+      <c r="H147">
+        <v>4.064</v>
+      </c>
+      <c r="I147">
+        <v>3.1272</v>
+      </c>
+      <c r="L147">
+        <v>1.79</v>
+      </c>
+      <c r="M147">
+        <v>2.82168</v>
+      </c>
+      <c r="N147">
+        <v>2.99408</v>
+      </c>
+      <c r="O147">
+        <v>1791973.7</v>
+      </c>
+      <c r="P147">
+        <v>5504665</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>54</v>
+      </c>
+      <c r="R147" t="s">
+        <v>55</v>
+      </c>
+      <c r="S147" t="s">
+        <v>56</v>
+      </c>
+      <c r="T147" t="s">
+        <v>57</v>
+      </c>
+      <c r="U147" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="148" spans="1:21">
+      <c r="A148" t="s">
+        <v>21</v>
+      </c>
+      <c r="B148" t="s">
+        <v>35</v>
+      </c>
+      <c r="D148" t="s">
+        <v>52</v>
+      </c>
+      <c r="E148" t="s">
+        <v>53</v>
+      </c>
+      <c r="F148">
+        <v>3.4</v>
+      </c>
+      <c r="G148">
+        <v>3.32362068965517</v>
+      </c>
+      <c r="H148">
+        <v>6.25</v>
+      </c>
+      <c r="I148">
+        <v>4.412</v>
+      </c>
+      <c r="L148">
+        <v>2.88</v>
+      </c>
+      <c r="M148">
+        <v>3.8904</v>
+      </c>
+      <c r="N148">
+        <v>4.3316</v>
+      </c>
+      <c r="O148">
+        <v>1791973.7</v>
+      </c>
+      <c r="P148">
+        <v>5504665</v>
+      </c>
+      <c r="Q148" t="s">
+        <v>54</v>
+      </c>
+      <c r="R148" t="s">
+        <v>55</v>
+      </c>
+      <c r="S148" t="s">
+        <v>56</v>
+      </c>
+      <c r="T148" t="s">
+        <v>57</v>
+      </c>
+      <c r="U148" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="149" spans="1:21">
+      <c r="A149" t="s">
+        <v>21</v>
+      </c>
+      <c r="B149" t="s">
+        <v>36</v>
+      </c>
+      <c r="D149" t="s">
+        <v>52</v>
+      </c>
+      <c r="E149" t="s">
+        <v>53</v>
+      </c>
+      <c r="F149">
+        <v>3.4</v>
+      </c>
+      <c r="G149">
+        <v>3.32362068965517</v>
+      </c>
+      <c r="H149">
+        <v>6.25</v>
+      </c>
+      <c r="I149">
+        <v>4.412</v>
+      </c>
+      <c r="L149">
+        <v>2.88</v>
+      </c>
+      <c r="M149">
+        <v>3.8904</v>
+      </c>
+      <c r="N149">
+        <v>4.3316</v>
+      </c>
+      <c r="O149">
+        <v>1791973.7</v>
+      </c>
+      <c r="P149">
+        <v>5504665</v>
+      </c>
+      <c r="Q149" t="s">
+        <v>54</v>
+      </c>
+      <c r="R149" t="s">
+        <v>55</v>
+      </c>
+      <c r="S149" t="s">
+        <v>56</v>
+      </c>
+      <c r="T149" t="s">
+        <v>57</v>
+      </c>
+      <c r="U149" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="150" spans="1:21">
+      <c r="A150" t="s">
+        <v>21</v>
+      </c>
+      <c r="B150" t="s">
+        <v>37</v>
+      </c>
+      <c r="D150" t="s">
+        <v>52</v>
+      </c>
+      <c r="E150" t="s">
+        <v>53</v>
+      </c>
+      <c r="F150">
+        <v>0.119</v>
+      </c>
+      <c r="G150">
+        <v>0.151793103448276</v>
+      </c>
+      <c r="H150">
+        <v>0.776</v>
+      </c>
+      <c r="I150">
+        <v>0.3764</v>
+      </c>
+      <c r="L150">
+        <v>0.1295</v>
+      </c>
+      <c r="M150">
+        <v>0.22264</v>
+      </c>
+      <c r="N150">
+        <v>0.30972</v>
+      </c>
+      <c r="O150">
+        <v>1791973.7</v>
+      </c>
+      <c r="P150">
+        <v>5504665</v>
+      </c>
+      <c r="Q150" t="s">
+        <v>54</v>
+      </c>
+      <c r="R150" t="s">
+        <v>55</v>
+      </c>
+      <c r="S150" t="s">
+        <v>56</v>
+      </c>
+      <c r="T150" t="s">
+        <v>57</v>
+      </c>
+      <c r="U150" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="151" spans="1:21">
+      <c r="A151" t="s">
+        <v>21</v>
+      </c>
+      <c r="B151" t="s">
+        <v>38</v>
+      </c>
+      <c r="D151" t="s">
+        <v>52</v>
+      </c>
+      <c r="E151" t="s">
+        <v>53</v>
+      </c>
+      <c r="F151">
+        <v>0.119</v>
+      </c>
+      <c r="G151">
+        <v>0.151793103448276</v>
+      </c>
+      <c r="H151">
+        <v>0.776</v>
+      </c>
+      <c r="I151">
+        <v>0.3764</v>
+      </c>
+      <c r="L151">
+        <v>0.1295</v>
+      </c>
+      <c r="M151">
+        <v>0.22264</v>
+      </c>
+      <c r="N151">
+        <v>0.30972</v>
+      </c>
+      <c r="O151">
+        <v>1791973.7</v>
+      </c>
+      <c r="P151">
+        <v>5504665</v>
+      </c>
+      <c r="Q151" t="s">
+        <v>54</v>
+      </c>
+      <c r="R151" t="s">
+        <v>55</v>
+      </c>
+      <c r="S151" t="s">
+        <v>56</v>
+      </c>
+      <c r="T151" t="s">
+        <v>57</v>
+      </c>
+      <c r="U151" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
